--- a/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
+++ b/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="75" windowWidth="13065" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="9225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission_Attributes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Transmission_Lines</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>California Nevada</t>
+  </si>
+  <si>
+    <t>Susceptance</t>
+  </si>
+  <si>
+    <t>Capacity MW</t>
   </si>
 </sst>
 </file>
@@ -310,8 +316,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,7 +633,7 @@
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +652,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -665,8 +675,11 @@
       <c r="F2">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -685,8 +698,11 @@
       <c r="F3">
         <v>425</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -705,8 +721,11 @@
       <c r="F4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -725,8 +744,11 @@
       <c r="F5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -745,8 +767,11 @@
       <c r="F6">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -765,8 +790,11 @@
       <c r="F7">
         <v>1050</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -785,8 +813,12 @@
       <c r="F8">
         <v>650</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f>2.69*(1.5/1.73)</f>
+        <v>2.3323699421965318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -805,8 +837,11 @@
       <c r="F9">
         <v>800</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -825,8 +860,12 @@
       <c r="F10">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f>1.87*(D10/1.2)</f>
+        <v>0.43633333333333341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -845,8 +884,11 @@
       <c r="F11">
         <v>800</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -865,8 +907,11 @@
       <c r="F12">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -885,8 +930,11 @@
       <c r="F13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -905,8 +953,12 @@
       <c r="F14">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f>2.93*(1.6/1.89)</f>
+        <v>2.4804232804232806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -925,8 +977,12 @@
       <c r="F15">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f>5.6*(2/3.6)</f>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -945,8 +1001,11 @@
       <c r="F16">
         <v>780</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -965,8 +1024,11 @@
       <c r="F17">
         <v>650</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -985,8 +1047,11 @@
       <c r="F18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1005,8 +1070,11 @@
       <c r="F19">
         <v>900</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1024,6 +1092,9 @@
       </c>
       <c r="F20">
         <v>950</v>
+      </c>
+      <c r="G20">
+        <v>12.94</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1376,381 +1447,5136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1">
+        <f t="array" ref="B1:T1">TRANSPOSE(Transmission_Attributes!D2:D20)</f>
+        <v>9.5</v>
+      </c>
+      <c r="C1">
+        <v>12.62</v>
+      </c>
+      <c r="D1">
+        <v>8.58</v>
+      </c>
+      <c r="E1">
+        <v>0.98</v>
+      </c>
+      <c r="F1">
+        <v>3.43</v>
+      </c>
+      <c r="G1">
+        <v>2.6</v>
+      </c>
+      <c r="H1">
+        <v>1.5</v>
+      </c>
+      <c r="I1">
+        <v>4.62</v>
+      </c>
+      <c r="J1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K1">
+        <v>1.49</v>
+      </c>
+      <c r="L1">
+        <v>0.2</v>
+      </c>
+      <c r="M1">
+        <v>0.31</v>
+      </c>
+      <c r="N1">
+        <v>1.6</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>5.61</v>
+      </c>
+      <c r="Q1">
+        <v>0.4</v>
+      </c>
+      <c r="R1">
+        <v>1.31</v>
+      </c>
+      <c r="S1">
+        <v>9.18</v>
+      </c>
+      <c r="T1">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" t="str">
+        <f t="array" ref="B2:T2">TRANSPOSE(Transmission_Attributes!A2:A20)</f>
+        <v>ECAR_MAAC</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ECAR_MAIN</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ECAR_STV</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ERCOT_SPP</v>
+      </c>
+      <c r="F2" t="str">
+        <v>MAAC_NY</v>
+      </c>
+      <c r="G2" t="str">
+        <v>MAAC_STV</v>
+      </c>
+      <c r="H2" t="str">
+        <v>MAIN_MAPP</v>
+      </c>
+      <c r="I2" t="str">
+        <v>MAIN_STV</v>
+      </c>
+      <c r="J2" t="str">
+        <v>MAIN_SPP</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MAPP_SPP</v>
+      </c>
+      <c r="L2" t="str">
+        <v>MAPP_NWP</v>
+      </c>
+      <c r="M2" t="str">
+        <v>MAPP_RA</v>
+      </c>
+      <c r="N2" t="str">
+        <v>NY_NE</v>
+      </c>
+      <c r="O2" t="str">
+        <v>FL_STV</v>
+      </c>
+      <c r="P2" t="str">
+        <v>STV_SPP</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>SPP_RA</v>
+      </c>
+      <c r="R2" t="str">
+        <v>NWP_RA</v>
+      </c>
+      <c r="S2" t="str">
+        <v>NWP_CNV</v>
+      </c>
+      <c r="T2" t="str">
+        <v>RA_CNV</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <f>A2+500</f>
+      <c r="B3" s="1">
+        <f t="array" ref="B3:T3">TRANSPOSE(Transmission_Attributes!G2:G20)</f>
+        <v>14.78</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19.63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.3323699421965318</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.43633333333333341</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.4804232804232806</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="T3" s="1">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <f t="shared" ref="A4:A35" si="0">A3+500</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <f>A3+500</f>
+      <c r="B4" s="1">
+        <f>((($A4/1000)+B$1)/B$1)*B$3</f>
+        <v>15.557894736842103</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:T18" si="1">((($A4/1000)+C$1)/C$1)*C$3</f>
+        <v>20.407733755942946</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>14.127972027972026</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2955102040816326</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1184256559766768</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8169230769230769</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1098265895953756</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9681385281385282</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2155000000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0985234899328855</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.085</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.254193548387097</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.255555555555556</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5080748663101602</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.395</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8600763358778623</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="1"/>
+        <v>15.057777777777776</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="1"/>
+        <v>13.718580024067387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <f>A4+500</f>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:Q36" si="2">((($A5/1000)+B$1)/B$1)*B$3</f>
+        <v>16.335789473684212</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>21.185467511885893</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>14.905944055944056</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0710204081632648</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8968513119533519</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5938461538461537</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8872832369942198</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7462770562770569</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9946666666666668</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8770469798657721</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8599999999999997</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0283870967741935</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0306878306878309</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>10.286149732620322</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.17</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6501526717557247</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>15.835555555555553</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="1"/>
+        <v>14.497160048134777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <f>A5+500</f>
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>17.113684210526316</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>21.96320126782884</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>15.683916083916083</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8465306122448983</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6752769679300279</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3707692307692296</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6647398843930636</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5244155844155856</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7738333333333336</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6555704697986577</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8025806451612905</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8058201058201062</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>11.064224598930481</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9449999999999994</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4402290076335875</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="1"/>
+        <v>16.613333333333333</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="1"/>
+        <v>15.275740072202165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <f>A6+500</f>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>17.891578947368419</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>22.740935023771787</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>16.461888111888111</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.622040816326531</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4537026239067057</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1476923076923065</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4421965317919083</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>10.302554112554112</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5530000000000004</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4340939597315439</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.41</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.576774193548387</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5809523809523816</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>11.842299465240641</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7199999999999993</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2303053435114499</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="1"/>
+        <v>17.391111111111112</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="1"/>
+        <v>16.054320096269553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f>A7+500</f>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>18.669473684210523</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>23.518668779714737</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>17.239860139860138</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3975510204081631</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2321282798833799</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9246153846153833</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2196531791907512</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>11.080692640692641</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3321666666666676</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2126174496644291</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3509677419354835</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3560846560846551</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>12.620374331550801</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4949999999999992</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0203816793893123</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="1"/>
+        <v>18.168888888888887</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="1"/>
+        <v>16.832900120336941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <f>A8+500</f>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>19.447368421052634</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>24.296402535657684</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>18.017832167832168</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1730612244897962</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>10.010553935860056</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7015384615384619</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.997109826589595</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>11.85883116883117</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1113333333333335</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9911409395973152</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.96</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1251612903225805</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1312169312169305</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>13.398449197860963</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.27</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8104580152671756</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="1"/>
+        <v>18.946666666666665</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="1"/>
+        <v>17.611480144404332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f>A9+500</f>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>20.225263157894737</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>25.074136291600631</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>18.795804195804195</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9485714285714293</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>10.788979591836734</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4784615384615378</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7745664739884397</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>12.636969696969699</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8905000000000012</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7696644295302013</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7350000000000003</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8993548387096775</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9063492063492058</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5555555555555554</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>14.176524064171122</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6005343511450381</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="1"/>
+        <v>19.72444444444444</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="1"/>
+        <v>18.39006016847172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <f>A10+500</f>
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>21.003157894736841</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>25.851870047543578</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>19.573776223776225</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7240816326530615</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>11.56740524781341</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>10.255384615384616</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5520231213872826</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>13.415108225108227</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6696666666666671</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5481879194630874</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.51</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6735483870967736</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.681481481481482</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>14.954598930481284</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.82</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3906106870229014</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="1"/>
+        <v>20.502222222222223</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="1"/>
+        <v>19.168640192539108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <f>A11+500</f>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>21.781052631578945</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>26.629603803486525</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>20.351748251748251</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4995918367346945</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>12.345830903790086</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>11.032307692307691</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3294797687861273</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>14.193246753246756</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4488333333333339</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3267114093959727</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2850000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4477419354838705</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4566137566137556</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>10.111111111111111</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>15.732673796791444</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5949999999999998</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1806870229007629</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="1"/>
+        <v>21.28</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="1"/>
+        <v>19.947220216606496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <f>A12+500</f>
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>22.558947368421052</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>27.407337559429472</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>21.129720279720278</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2751020408163285</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>13.124256559766764</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>11.809230769230769</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.10693641618497</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>14.971385281385283</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.2280000000000015</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.105234899328858</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.06</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.2219354838709666</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.231746031746031</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.888888888888889</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>16.510748663101605</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9707633587786262</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="1"/>
+        <v>22.057777777777776</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="1"/>
+        <v>20.725800240673887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f>A13+500</f>
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>23.336842105263159</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>28.185071315372419</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>21.907692307692308</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.050612244897959</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>13.90268221574344</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>12.586153846153845</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.884393063583817</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>15.749523809523811</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0071666666666683</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.883758389261743</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8349999999999991</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9961290322580645</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>11.006878306878306</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>17.288823529411765</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.760839694656488</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="1"/>
+        <v>22.835555555555555</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="1"/>
+        <v>21.504380264741275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f>A14+500</f>
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>24.114736842105263</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>28.962805071315366</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>22.685664335664335</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>10.826122448979593</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>14.681107871720116</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>13.363076923076923</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.66184971098266</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>16.527662337662338</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7863333333333351</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.662281879194632</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.61</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7703225806451606</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.782010582010582</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>12.444444444444445</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>18.066898395721925</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.92</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.550916030534351</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="1"/>
+        <v>23.613333333333333</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="1"/>
+        <v>22.282960288808663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <f>A15+500</f>
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>24.892631578947366</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>29.740538827258316</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>23.463636363636361</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>11.601632653061227</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>15.45953352769679</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>14.139999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>12.439306358381502</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>17.305800865800869</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.5655</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>12.440805369127517</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.385</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.544516129032257</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>12.557142857142855</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>13.222222222222223</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>18.844973262032084</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>10.695</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>12.340992366412213</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="1"/>
+        <v>24.391111111111112</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="1"/>
+        <v>23.061540312876051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f>A16+500</f>
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>25.670526315789473</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>30.518272583201266</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>24.241608391608391</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>12.377142857142859</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>16.237959183673468</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>14.916923076923077</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.216763005780347</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>18.083939393939396</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>11.344666666666669</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.219328859060402</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>11.16</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>11.318709677419353</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.332275132275131</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>19.623048128342244</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="1"/>
+        <v>11.47</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.131068702290076</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="1"/>
+        <v>25.168888888888887</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="1"/>
+        <v>23.840120336943443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f>A17+500</f>
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>26.448421052631577</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>31.296006339144213</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>25.019580419580418</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>13.152653061224491</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:T63" si="3">((($A18/1000)+F$1)/F$1)*F$3</f>
+        <v>17.016384839650144</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>15.693846153846152</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.99421965317919</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>18.862077922077926</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.123833333333335</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.997852348993289</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>11.935</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.092903225806451</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>14.107407407407406</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>14.777777777777779</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>20.401122994652404</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.244999999999999</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.921145038167937</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="3"/>
+        <v>25.946666666666665</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="3"/>
+        <v>24.618700361010827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f>A18+500</f>
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>27.226315789473681</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>32.07374009508716</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>25.797552447552444</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>13.928163265306123</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>17.79481049562682</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>16.470769230769228</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>14.771676300578035</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>19.64021645021645</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>12.903</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>14.776375838926175</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>12.709999999999997</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>12.867096774193548</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>14.882539682539681</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="2"/>
+        <v>21.179197860962567</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="2"/>
+        <v>13.02</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="3"/>
+        <v>14.711221374045801</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="3"/>
+        <v>26.724444444444444</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="3"/>
+        <v>25.397280385078219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f>A19+500</f>
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>28.004210526315788</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>32.851473851030107</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>26.575524475524475</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>14.703673469387757</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>18.573236151603496</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>17.247692307692308</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>15.549132947976879</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>20.41835497835498</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>13.682166666666665</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>15.55489932885906</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>13.484999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>13.641290322580646</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>15.657671957671957</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="2"/>
+        <v>21.957272727272724</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="2"/>
+        <v>13.795</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="3"/>
+        <v>15.501297709923662</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="3"/>
+        <v>27.502222222222223</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="3"/>
+        <v>26.17586040914561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f>A20+500</f>
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>28.782105263157895</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>33.629207606973054</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>27.353496503496501</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>15.47918367346939</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>19.351661807580172</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>18.024615384615384</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>16.326589595375722</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>21.196493506493507</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>14.461333333333334</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>16.333422818791945</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>14.259999999999998</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>14.415483870967742</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>16.432804232804234</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>22.735347593582887</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>14.57</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="3"/>
+        <v>16.291374045801525</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="3"/>
+        <v>28.28</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="3"/>
+        <v>26.954440433212998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f>A21+500</f>
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>29.56</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>34.406941362916001</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>28.131468531468528</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>16.25469387755102</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>20.130087463556851</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>18.80153846153846</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>17.104046242774565</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>21.974632034632037</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>15.240500000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>17.111946308724832</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>15.034999999999998</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>15.18967741935484</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>17.207936507936509</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>17.888888888888889</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>23.51342245989305</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="3"/>
+        <v>17.081450381679389</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="3"/>
+        <v>29.057777777777776</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="3"/>
+        <v>27.733020457280382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <f>A22+500</f>
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>30.337894736842106</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>35.184675118858948</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>28.909440559440554</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>17.030204081632654</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>20.908513119533527</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>19.578461538461536</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>17.881502890173412</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>22.752770562770564</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>16.019666666666666</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>17.890469798657715</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>15.809999999999997</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>15.963870967741935</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>17.983068783068781</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>24.291497326203206</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="2"/>
+        <v>16.12</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="3"/>
+        <v>17.871526717557249</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="3"/>
+        <v>29.835555555555555</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="3"/>
+        <v>28.511600481347774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <f>A23+500</f>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>31.115789473684206</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>35.962408874801895</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>29.687412587412584</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>17.805714285714288</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>21.6869387755102</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>20.355384615384615</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>18.658959537572255</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>23.530909090909095</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.798833333333334</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>18.668993288590602</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.584999999999997</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.738064516129032</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>18.758201058201056</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>25.06957219251337</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.895</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="3"/>
+        <v>18.661603053435115</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="3"/>
+        <v>30.61333333333333</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="3"/>
+        <v>29.290180505415165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <f>A24+500</f>
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>31.893684210526317</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>36.740142630744842</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>30.465384615384615</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>18.581224489795918</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>22.465364431486879</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>21.132307692307691</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>19.436416184971101</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>24.309047619047622</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>17.577999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>19.447516778523486</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>17.36</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>17.512258064516129</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
+        <v>19.533333333333331</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>20.222222222222221</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>25.847647058823529</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>17.669999999999998</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="3"/>
+        <v>19.451679389312975</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="3"/>
+        <v>31.391111111111108</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="3"/>
+        <v>30.068760529482553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <f>A25+500</f>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>32.671578947368424</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>37.517876386687796</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>31.243356643356641</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>19.356734693877552</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>23.243790087463552</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>21.909230769230767</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>20.21387283236994</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>25.087186147186149</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>18.357166666666664</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>20.226040268456376</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>18.134999999999998</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>18.286451612903228</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
+        <v>20.30846560846561</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>26.625721925133689</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>18.445</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="3"/>
+        <v>20.241755725190838</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="3"/>
+        <v>32.168888888888887</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="3"/>
+        <v>30.847340553549937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <f>A26+500</f>
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>33.449473684210524</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>38.295610142630743</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>32.021328671328668</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>20.132244897959186</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>24.022215743440231</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>22.686153846153843</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>20.991329479768787</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>25.865324675324675</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>19.136333333333337</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>21.004563758389263</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>18.909999999999997</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>19.060645161290321</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>21.083597883597886</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>21.777777777777779</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>27.403796791443849</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>19.22</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="3"/>
+        <v>21.031832061068698</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="3"/>
+        <v>32.946666666666665</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="3"/>
+        <v>31.625920577617329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <f>A27+500</f>
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>34.227368421052631</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>39.07334389857369</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>32.799300699300694</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>20.907755102040817</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>24.800641399416907</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>23.463076923076922</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>21.768786127167633</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>26.643463203463206</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>19.915500000000002</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>21.783087248322147</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>19.684999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>19.83483870967742</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="2"/>
+        <v>21.858730158730161</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>22.555555555555557</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>28.181871657754012</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="2"/>
+        <v>19.995000000000001</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="3"/>
+        <v>21.821908396946565</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="3"/>
+        <v>33.724444444444444</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="3"/>
+        <v>32.404500601684717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <f>A28+500</f>
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>35.005263157894731</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>39.851077654516637</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>33.577272727272728</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>21.683265306122451</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>25.579067055393587</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>24.240000000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>22.546242774566473</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>27.421601731601733</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.694666666666667</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>22.561610738255034</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.459999999999994</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.609032258064516</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>22.633862433862436</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>28.959946524064168</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.77</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="3"/>
+        <v>22.611984732824425</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="3"/>
+        <v>34.502222222222223</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="3"/>
+        <v>33.183080625752112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>13500</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <f>A29+500</f>
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>35.783157894736839</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>40.628811410459583</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>34.355244755244755</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>22.458775510204084</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>26.357492711370259</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>25.016923076923078</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>23.323699421965319</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>28.199740259740263</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>21.473833333333335</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>23.340134228187917</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>21.234999999999996</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>21.383225806451613</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="2"/>
+        <v>23.408994708994712</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>24.111111111111111</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>29.738021390374332</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="2"/>
+        <v>21.544999999999998</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="3"/>
+        <v>23.402061068702288</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="3"/>
+        <v>35.28</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="3"/>
+        <v>33.961660649819493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <f>A30+500</f>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>36.561052631578946</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>41.40654516640253</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>35.133216783216781</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>23.234285714285715</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>27.135918367346939</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>25.793846153846157</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>24.101156069364162</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>28.97787878787879</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>22.253</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>24.118657718120804</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>22.009999999999994</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>22.157419354838709</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="2"/>
+        <v>24.184126984126987</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>30.516096256684492</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>22.32</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="3"/>
+        <v>24.192137404580148</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="3"/>
+        <v>36.05777777777778</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="3"/>
+        <v>34.740240673886881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <f>A31+500</f>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>37.338947368421046</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>42.184278922345477</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>35.911188811188808</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>24.009795918367349</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>27.914344023323611</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>26.570769230769233</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>24.878612716763005</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>29.756017316017317</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>23.032166666666669</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>24.897181208053688</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>22.784999999999997</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>22.931612903225805</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="2"/>
+        <v>24.959259259259262</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>31.294171122994651</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="2"/>
+        <v>23.094999999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="3"/>
+        <v>24.982213740458015</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="3"/>
+        <v>36.835555555555551</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="3"/>
+        <v>35.518820697954276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <f>A32+500</f>
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
+        <v>38.11684210526316</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>42.962012678288431</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>36.689160839160834</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>24.785306122448983</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>28.692769679300287</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>27.347692307692309</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>25.656069364161851</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>30.534155844155848</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>23.811333333333334</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>25.675704697986575</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>23.559999999999995</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>23.705806451612904</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="2"/>
+        <v>25.734391534391538</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>26.444444444444446</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>32.072245989304811</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="2"/>
+        <v>23.87</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="3"/>
+        <v>25.772290076335871</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="3"/>
+        <v>37.61333333333333</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="3"/>
+        <v>36.297400722021656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>15500</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <f>A33+500</f>
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
+        <v>38.894736842105267</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:R63" si="4">((($A34/1000)+C$1)/C$1)*C$3</f>
+        <v>43.739746434231371</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>37.467132867132861</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="4"/>
+        <v>25.56081632653061</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="4"/>
+        <v>29.471195335276967</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>28.124615384615385</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>26.433526011560694</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>31.312294372294375</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="4"/>
+        <v>24.590499999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="4"/>
+        <v>26.454228187919458</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="4"/>
+        <v>24.334999999999994</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>24.48</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="4"/>
+        <v>26.509523809523813</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="4"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="4"/>
+        <v>32.850320855614974</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="4"/>
+        <v>24.645</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="4"/>
+        <v>26.562366412213734</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="3"/>
+        <v>38.391111111111108</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="3"/>
+        <v>37.075980746089051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <f>A34+500</f>
+      <c r="B35" s="1">
+        <f t="shared" ref="B35:Q63" si="5">((($A35/1000)+B$1)/B$1)*B$3</f>
+        <v>39.672631578947367</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="4"/>
+        <v>44.517480190174325</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="4"/>
+        <v>38.245104895104895</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="4"/>
+        <v>26.336326530612247</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="4"/>
+        <v>30.249620991253639</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>28.901538461538465</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>27.210982658959537</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>32.090432900432901</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="4"/>
+        <v>25.369666666666671</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="4"/>
+        <v>27.232751677852345</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="4"/>
+        <v>25.109999999999996</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="4"/>
+        <v>25.254193548387093</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="4"/>
+        <v>27.284656084656088</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="4"/>
+        <v>33.628395721925131</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="4"/>
+        <v>25.419999999999995</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="4"/>
+        <v>27.352442748091597</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="3"/>
+        <v>39.168888888888887</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="3"/>
+        <v>37.854560770156439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <f t="shared" ref="A36:A63" si="6">A35+500</f>
         <v>16500</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <f>A35+500</f>
+      <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>40.450526315789475</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="4"/>
+        <v>45.295213946117272</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="4"/>
+        <v>39.023076923076921</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="4"/>
+        <v>27.111836734693881</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="4"/>
+        <v>31.028046647230319</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="4"/>
+        <v>29.678461538461541</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>27.98843930635838</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>32.868571428571428</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="4"/>
+        <v>26.148833333333336</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="4"/>
+        <v>28.011275167785229</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="4"/>
+        <v>25.884999999999994</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="4"/>
+        <v>26.028387096774189</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="4"/>
+        <v>28.059788359788364</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="4"/>
+        <v>28.777777777777779</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="4"/>
+        <v>34.406470588235294</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="4"/>
+        <v>26.194999999999997</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="4"/>
+        <v>28.142519083969461</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="3"/>
+        <v>39.946666666666665</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="3"/>
+        <v>38.633140794223827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <f>A36+500</f>
+      <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>41.228421052631575</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="4"/>
+        <v>46.072947702060219</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="4"/>
+        <v>39.801048951048948</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="4"/>
+        <v>27.887346938775508</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="4"/>
+        <v>31.806472303206991</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>30.455384615384617</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="4"/>
+        <v>28.765895953757227</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>33.646709956709962</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="4"/>
+        <v>26.928000000000004</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="4"/>
+        <v>28.789798657718116</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="4"/>
+        <v>26.659999999999997</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="4"/>
+        <v>26.802580645161289</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="4"/>
+        <v>28.834920634920639</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="4"/>
+        <v>29.555555555555557</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="4"/>
+        <v>35.184545454545457</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="4"/>
+        <v>26.969999999999995</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="4"/>
+        <v>28.932595419847321</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="3"/>
+        <v>40.724444444444444</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="3"/>
+        <v>39.411720818291215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <f t="shared" si="6"/>
         <v>17500</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <f>A37+500</f>
+      <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>42.006315789473682</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>46.850681458003166</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>40.579020979020974</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="4"/>
+        <v>28.662857142857145</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="4"/>
+        <v>32.584897959183671</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>31.232307692307693</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>29.543352601156069</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>34.424848484848489</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="4"/>
+        <v>27.707166666666673</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>29.568322147651003</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="4"/>
+        <v>27.434999999999995</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="4"/>
+        <v>27.576774193548385</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>29.610052910052914</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="4"/>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="4"/>
+        <v>35.962620320855613</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="4"/>
+        <v>27.744999999999994</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="4"/>
+        <v>29.722671755725184</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="3"/>
+        <v>41.502222222222223</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="3"/>
+        <v>40.190300842358603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <f t="shared" si="6"/>
         <v>18000</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <f>A38+500</f>
+      <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>42.784210526315789</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
+        <v>47.628415213946113</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="4"/>
+        <v>41.356993006993001</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="4"/>
+        <v>29.438367346938779</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="4"/>
+        <v>33.363323615160347</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="4"/>
+        <v>32.009230769230768</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>30.320809248554912</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>35.202987012987016</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="4"/>
+        <v>28.486333333333334</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="4"/>
+        <v>30.34684563758389</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="4"/>
+        <v>28.209999999999994</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="4"/>
+        <v>28.350967741935481</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="4"/>
+        <v>30.385185185185186</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="4"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="4"/>
+        <v>36.74069518716577</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="4"/>
+        <v>28.519999999999996</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="4"/>
+        <v>30.512748091603047</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="3"/>
+        <v>42.28</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="3"/>
+        <v>40.968880866425991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <f t="shared" si="6"/>
         <v>18500</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <f>A39+500</f>
+      <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>43.562105263157889</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
+        <v>48.406148969889067</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="4"/>
+        <v>42.134965034965035</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="4"/>
+        <v>30.213877551020406</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="4"/>
+        <v>34.141749271137023</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
+        <v>32.786153846153844</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>31.098265895953759</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>35.981125541125543</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="4"/>
+        <v>29.265500000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="4"/>
+        <v>31.125369127516773</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="4"/>
+        <v>28.984999999999996</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="4"/>
+        <v>29.125161290322577</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>31.160317460317462</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="4"/>
+        <v>31.888888888888889</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="4"/>
+        <v>37.518770053475933</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="4"/>
+        <v>29.294999999999995</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="4"/>
+        <v>31.30282442748091</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="3"/>
+        <v>43.05777777777778</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="3"/>
+        <v>41.747460890493386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <f t="shared" si="6"/>
         <v>19000</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <f>A40+500</f>
+      <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>44.339999999999996</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
+        <v>49.183882725832007</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="4"/>
+        <v>42.912937062937061</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="4"/>
+        <v>30.989387755102044</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="4"/>
+        <v>34.920174927113699</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
+        <v>33.563076923076927</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>31.875722543352602</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>36.759264069264077</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="4"/>
+        <v>30.044666666666675</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="4"/>
+        <v>31.90389261744966</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="4"/>
+        <v>29.759999999999994</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="4"/>
+        <v>29.899354838709677</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="4"/>
+        <v>31.935449735449737</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="4"/>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="4"/>
+        <v>38.296844919786096</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="4"/>
+        <v>30.069999999999997</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="4"/>
+        <v>32.09290076335877</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="3"/>
+        <v>43.835555555555551</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="3"/>
+        <v>42.526040914560767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <f t="shared" si="6"/>
         <v>19500</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <f>A41+500</f>
+      <c r="B42" s="1">
+        <f t="shared" si="5"/>
+        <v>45.117894736842103</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>49.961616481774961</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>43.690909090909088</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="4"/>
+        <v>31.764897959183678</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="4"/>
+        <v>35.698600583090375</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>34.340000000000003</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>32.653179190751445</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>37.537402597402604</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="4"/>
+        <v>30.823833333333337</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="4"/>
+        <v>32.682416107382544</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="4"/>
+        <v>30.534999999999997</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="4"/>
+        <v>30.673548387096773</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="4"/>
+        <v>32.710582010582016</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="4"/>
+        <v>33.444444444444443</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="4"/>
+        <v>39.074919786096252</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="4"/>
+        <v>30.844999999999995</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="4"/>
+        <v>32.882977099236641</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="3"/>
+        <v>44.61333333333333</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="3"/>
+        <v>43.304620938628155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <f>A42+500</f>
+      <c r="B43" s="1">
+        <f t="shared" si="5"/>
+        <v>45.895789473684204</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>50.7393502377179</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>44.468881118881114</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="4"/>
+        <v>32.540408163265305</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>36.477026239067051</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>35.116923076923079</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="4"/>
+        <v>33.430635838150287</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>38.315541125541131</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="4"/>
+        <v>31.603000000000005</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="4"/>
+        <v>33.460939597315431</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="4"/>
+        <v>31.309999999999995</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="4"/>
+        <v>31.447741935483869</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="4"/>
+        <v>33.485714285714288</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="4"/>
+        <v>34.222222222222221</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="4"/>
+        <v>39.852994652406416</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="4"/>
+        <v>31.619999999999994</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="4"/>
+        <v>33.673053435114497</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="3"/>
+        <v>45.391111111111108</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="3"/>
+        <v>44.08320096269555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <f t="shared" si="6"/>
         <v>20500</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <f>A43+500</f>
+      <c r="B44" s="1">
+        <f t="shared" si="5"/>
+        <v>46.673684210526318</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>51.517083993660854</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>45.246853146853141</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="4"/>
+        <v>33.315918367346939</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="4"/>
+        <v>37.255451895043727</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>35.893846153846155</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="4"/>
+        <v>34.20809248554913</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="4"/>
+        <v>39.093679653679651</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="4"/>
+        <v>32.38216666666667</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="4"/>
+        <v>34.239463087248318</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="4"/>
+        <v>32.084999999999994</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="4"/>
+        <v>32.221935483870965</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="4"/>
+        <v>34.260846560846566</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="4"/>
+        <v>40.631069518716572</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="4"/>
+        <v>32.394999999999996</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="4"/>
+        <v>34.463129770992367</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="3"/>
+        <v>46.168888888888887</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="3"/>
+        <v>44.861780986762938</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <f t="shared" si="6"/>
         <v>21000</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <f>A44+500</f>
+      <c r="B45" s="1">
+        <f t="shared" si="5"/>
+        <v>47.451578947368425</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>52.294817749603794</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>46.024825174825175</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="4"/>
+        <v>34.091428571428573</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="4"/>
+        <v>38.033877551020403</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>36.670769230769231</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="4"/>
+        <v>34.98554913294798</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>39.871818181818185</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="4"/>
+        <v>33.161333333333339</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="4"/>
+        <v>35.017986577181205</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="4"/>
+        <v>32.859999999999992</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="4"/>
+        <v>32.996129032258061</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="4"/>
+        <v>35.035978835978838</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="4"/>
+        <v>35.777777777777779</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="4"/>
+        <v>41.409144385026735</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="4"/>
+        <v>33.169999999999995</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="4"/>
+        <v>35.253206106870223</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="3"/>
+        <v>46.946666666666665</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="3"/>
+        <v>45.640361010830325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <f t="shared" si="6"/>
         <v>21500</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <f>A45+500</f>
+      <c r="B46" s="1">
+        <f t="shared" si="5"/>
+        <v>48.229473684210525</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>53.072551505546748</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="4"/>
+        <v>46.802797202797201</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="4"/>
+        <v>34.866938775510206</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="4"/>
+        <v>38.812303206997079</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>37.447692307692314</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>35.763005780346823</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>40.649956709956712</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="4"/>
+        <v>33.9405</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="4"/>
+        <v>35.796510067114092</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="4"/>
+        <v>33.634999999999998</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="4"/>
+        <v>33.770322580645157</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="4"/>
+        <v>35.811111111111117</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="4"/>
+        <v>36.555555555555557</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="4"/>
+        <v>42.187219251336899</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="4"/>
+        <v>33.944999999999993</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="4"/>
+        <v>36.043282442748087</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="3"/>
+        <v>47.724444444444444</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="3"/>
+        <v>46.418941034897713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <f t="shared" si="6"/>
         <v>22000</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <f>A46+500</f>
+      <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>49.007368421052632</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>53.850285261489688</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>47.580769230769228</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="4"/>
+        <v>35.64244897959184</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="4"/>
+        <v>39.590728862973762</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
+        <v>38.224615384615383</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>36.540462427745666</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="4"/>
+        <v>41.428095238095239</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="4"/>
+        <v>34.719666666666669</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="4"/>
+        <v>36.575033557046979</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="4"/>
+        <v>34.409999999999997</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="4"/>
+        <v>34.54451612903226</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="4"/>
+        <v>36.586243386243389</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="4"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="4"/>
+        <v>42.965294117647055</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="4"/>
+        <v>34.72</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="4"/>
+        <v>36.833358778625943</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="3"/>
+        <v>48.502222222222223</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="3"/>
+        <v>47.197521058965101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <f t="shared" si="6"/>
         <v>22500</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <f>A47+500</f>
+      <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>49.785263157894732</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>54.628019017432642</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>48.358741258741254</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="4"/>
+        <v>36.417959183673474</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="4"/>
+        <v>40.369154518950431</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
+        <v>39.001538461538459</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>37.317919075144509</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="4"/>
+        <v>42.206233766233765</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="4"/>
+        <v>35.498833333333337</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="4"/>
+        <v>37.353557046979859</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="4"/>
+        <v>35.184999999999995</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="4"/>
+        <v>35.318709677419349</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="4"/>
+        <v>37.361375661375668</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="4"/>
+        <v>38.111111111111114</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="4"/>
+        <v>43.743368983957225</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="4"/>
+        <v>35.494999999999997</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="4"/>
+        <v>37.623435114503813</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="3"/>
+        <v>49.28</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="3"/>
+        <v>47.976101083032489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <f t="shared" si="6"/>
         <v>23000</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <f>A48+500</f>
+      <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>50.56315789473684</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>55.405752773375596</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>49.136713286713281</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="4"/>
+        <v>37.193469387755101</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="4"/>
+        <v>41.147580174927114</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
+        <v>39.778461538461542</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>38.095375722543352</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="4"/>
+        <v>42.984372294372299</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="4"/>
+        <v>36.278000000000006</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="4"/>
+        <v>38.132080536912746</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="4"/>
+        <v>35.959999999999994</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="4"/>
+        <v>36.092903225806445</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="4"/>
+        <v>38.13650793650794</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="4"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="4"/>
+        <v>44.521443850267381</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="4"/>
+        <v>36.269999999999996</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" ref="R49:T63" si="7">((($A49/1000)+R$1)/R$1)*R$3</f>
+        <v>38.413511450381677</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="7"/>
+        <v>50.05777777777778</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="7"/>
+        <v>48.754681107099877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <f t="shared" si="6"/>
         <v>23500</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <f>A49+500</f>
+      <c r="B50" s="1">
+        <f t="shared" si="5"/>
+        <v>51.341052631578947</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="5"/>
+        <v>56.183486529318536</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="5"/>
+        <v>49.914685314685315</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="5"/>
+        <v>37.968979591836735</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="5"/>
+        <v>41.926005830903783</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="5"/>
+        <v>40.555384615384618</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="5"/>
+        <v>38.872832369942202</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="5"/>
+        <v>43.762510822510826</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="5"/>
+        <v>37.057166666666674</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>38.910604026845633</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="5"/>
+        <v>36.734999999999992</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="5"/>
+        <v>36.867096774193541</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="5"/>
+        <v>38.911640211640218</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="5"/>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="5"/>
+        <v>45.299518716577538</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="5"/>
+        <v>37.044999999999995</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="7"/>
+        <v>39.203587786259533</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="7"/>
+        <v>50.835555555555551</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="7"/>
+        <v>49.533261131167265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <f>A50+500</f>
+      <c r="B51" s="1">
+        <f t="shared" si="5"/>
+        <v>52.118947368421047</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>56.96122028526149</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="5"/>
+        <v>50.692657342657341</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="5"/>
+        <v>38.744489795918369</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="5"/>
+        <v>42.704431486880466</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="5"/>
+        <v>41.332307692307694</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="5"/>
+        <v>39.650289017341038</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="5"/>
+        <v>44.540649350649353</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="5"/>
+        <v>37.836333333333336</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>39.68912751677852</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="5"/>
+        <v>37.51</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="5"/>
+        <v>37.641290322580645</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="5"/>
+        <v>39.68677248677249</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="5"/>
+        <v>40.444444444444443</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="5"/>
+        <v>46.077593582887694</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="5"/>
+        <v>37.819999999999993</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="7"/>
+        <v>39.993664122137396</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="7"/>
+        <v>51.61333333333333</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="7"/>
+        <v>50.31184115523466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <f t="shared" si="6"/>
         <v>24500</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <f>A51+500</f>
+      <c r="B52" s="1">
+        <f t="shared" si="5"/>
+        <v>52.896842105263154</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>57.73895404120443</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="5"/>
+        <v>51.470629370629368</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="5"/>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="5"/>
+        <v>43.482857142857142</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="5"/>
+        <v>42.10923076923077</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="5"/>
+        <v>40.427745664739881</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="5"/>
+        <v>45.31878787878788</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="5"/>
+        <v>38.615500000000004</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>40.467651006711399</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="5"/>
+        <v>38.284999999999997</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="5"/>
+        <v>38.415483870967741</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="5"/>
+        <v>40.461904761904762</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="5"/>
+        <v>41.222222222222221</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="5"/>
+        <v>46.855668449197864</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="5"/>
+        <v>38.594999999999999</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="7"/>
+        <v>40.783740458015266</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="7"/>
+        <v>52.391111111111108</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="7"/>
+        <v>51.090421179302041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <f>A52+500</f>
+      <c r="B53" s="1">
+        <f t="shared" si="5"/>
+        <v>53.674736842105261</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>58.516687797147384</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="5"/>
+        <v>52.248601398601394</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="5"/>
+        <v>40.295510204081637</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="5"/>
+        <v>44.261282798833811</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="5"/>
+        <v>42.886153846153846</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="5"/>
+        <v>41.205202312138731</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="5"/>
+        <v>46.096926406926414</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="5"/>
+        <v>39.394666666666673</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="5"/>
+        <v>41.246174496644286</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="5"/>
+        <v>39.059999999999995</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="5"/>
+        <v>39.189677419354837</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="5"/>
+        <v>41.237037037037041</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="5"/>
+        <v>47.633743315508021</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="5"/>
+        <v>39.369999999999997</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="7"/>
+        <v>41.573816793893123</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="7"/>
+        <v>53.168888888888887</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="7"/>
+        <v>51.869001203369436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <f t="shared" si="6"/>
         <v>25500</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <f>A53+500</f>
+      <c r="B54" s="1">
+        <f t="shared" si="5"/>
+        <v>54.452631578947361</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>59.294421553090324</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="5"/>
+        <v>53.026573426573421</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="5"/>
+        <v>41.071020408163271</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="5"/>
+        <v>45.039708454810487</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="5"/>
+        <v>43.663076923076929</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="5"/>
+        <v>41.982658959537574</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="5"/>
+        <v>46.875064935064941</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="5"/>
+        <v>40.173833333333341</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="5"/>
+        <v>42.024697986577173</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="5"/>
+        <v>39.835000000000001</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="5"/>
+        <v>39.963870967741933</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="5"/>
+        <v>42.012169312169313</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="5"/>
+        <v>42.777777777777779</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="5"/>
+        <v>48.411818181818177</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="5"/>
+        <v>40.144999999999989</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="7"/>
+        <v>42.363893129770986</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="7"/>
+        <v>53.946666666666665</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="7"/>
+        <v>52.647581227436824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <f t="shared" si="6"/>
         <v>26000</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <f>A54+500</f>
+      <c r="B55" s="1">
+        <f t="shared" si="5"/>
+        <v>55.230526315789476</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>60.072155309033278</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="5"/>
+        <v>53.804545454545455</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="5"/>
+        <v>41.846530612244898</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="5"/>
+        <v>45.81813411078717</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="5"/>
+        <v>44.44</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="5"/>
+        <v>42.760115606936417</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="5"/>
+        <v>47.653203463203468</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="5"/>
+        <v>40.953000000000003</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="5"/>
+        <v>42.803221476510068</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="5"/>
+        <v>40.61</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="5"/>
+        <v>40.738064516129029</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="5"/>
+        <v>42.787301587301592</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="5"/>
+        <v>43.555555555555557</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="5"/>
+        <v>49.18989304812834</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="5"/>
+        <v>40.919999999999987</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="7"/>
+        <v>43.153969465648842</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="7"/>
+        <v>54.724444444444444</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="7"/>
+        <v>53.426161251504205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <f t="shared" si="6"/>
         <v>26500</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <f>A55+500</f>
+      <c r="B56" s="1">
+        <f t="shared" si="5"/>
+        <v>56.008421052631576</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>60.849889064976225</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="5"/>
+        <v>54.582517482517474</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="5"/>
+        <v>42.622040816326532</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="5"/>
+        <v>46.596559766763846</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="5"/>
+        <v>45.216923076923074</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="5"/>
+        <v>43.537572254335267</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="5"/>
+        <v>48.431341991341995</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="5"/>
+        <v>41.732166666666672</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="5"/>
+        <v>43.581744966442947</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="5"/>
+        <v>41.384999999999998</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="5"/>
+        <v>41.512258064516125</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="5"/>
+        <v>43.562433862433863</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="5"/>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="5"/>
+        <v>49.967967914438503</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="5"/>
+        <v>41.694999999999993</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="7"/>
+        <v>43.944045801526713</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="7"/>
+        <v>55.502222222222223</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="7"/>
+        <v>54.2047412755716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <f t="shared" si="6"/>
         <v>27000</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <f>A56+500</f>
+      <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>56.786315789473683</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>61.627622820919171</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="5"/>
+        <v>55.360489510489508</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="5"/>
+        <v>43.397551020408166</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="5"/>
+        <v>47.374985422740522</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="5"/>
+        <v>45.993846153846157</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="5"/>
+        <v>44.315028901734102</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="5"/>
+        <v>49.209480519480522</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="5"/>
+        <v>42.511333333333333</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="5"/>
+        <v>44.360268456375834</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="5"/>
+        <v>42.16</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="5"/>
+        <v>42.286451612903221</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="5"/>
+        <v>44.337566137566142</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="5"/>
+        <v>45.111111111111114</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="5"/>
+        <v>50.74604278074866</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="5"/>
+        <v>42.469999999999992</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="7"/>
+        <v>44.734122137404576</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="7"/>
+        <v>56.28</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="7"/>
+        <v>54.983321299638988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <f t="shared" si="6"/>
         <v>27500</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <f>A57+500</f>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>57.56421052631579</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>62.405356576862118</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="5"/>
+        <v>56.138461538461542</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="5"/>
+        <v>44.1730612244898</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="5"/>
+        <v>48.153411078717191</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="5"/>
+        <v>46.770769230769233</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="5"/>
+        <v>45.092485549132945</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="5"/>
+        <v>49.987619047619042</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="5"/>
+        <v>43.290500000000002</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="5"/>
+        <v>45.138791946308721</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="5"/>
+        <v>42.935000000000002</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="5"/>
+        <v>43.060645161290317</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="5"/>
+        <v>45.112698412698414</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="5"/>
+        <v>45.888888888888893</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="5"/>
+        <v>51.524117647058823</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="5"/>
+        <v>43.24499999999999</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="7"/>
+        <v>45.524198473282432</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="7"/>
+        <v>57.05777777777778</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="7"/>
+        <v>55.761901323706368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <f t="shared" si="6"/>
         <v>28000</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <f>A58+500</f>
+      <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>58.34210526315789</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>63.183090332805065</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="5"/>
+        <v>56.916433566433561</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="5"/>
+        <v>44.948571428571434</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="5"/>
+        <v>48.931836734693874</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="5"/>
+        <v>47.547692307692309</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="5"/>
+        <v>45.869942196531795</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="5"/>
+        <v>50.765757575757569</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="5"/>
+        <v>44.069666666666677</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="5"/>
+        <v>45.917315436241608</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="5"/>
+        <v>43.71</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="5"/>
+        <v>43.834838709677413</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="5"/>
+        <v>45.887830687830693</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="5"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="5"/>
+        <v>52.302192513368979</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="5"/>
+        <v>44.019999999999989</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="7"/>
+        <v>46.314274809160295</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="7"/>
+        <v>57.835555555555551</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="7"/>
+        <v>56.54048134777377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <f t="shared" si="6"/>
         <v>28500</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <f>A59+500</f>
+      <c r="B60" s="1">
+        <f t="shared" si="5"/>
+        <v>59.12</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>63.960824088748019</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="5"/>
+        <v>57.694405594405595</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="5"/>
+        <v>45.724081632653068</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="5"/>
+        <v>49.71026239067055</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="5"/>
+        <v>48.324615384615385</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="5"/>
+        <v>46.647398843930638</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="5"/>
+        <v>51.543896103896103</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="5"/>
+        <v>44.848833333333339</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="5"/>
+        <v>46.695838926174488</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="5"/>
+        <v>44.484999999999999</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="5"/>
+        <v>44.609032258064516</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="5"/>
+        <v>46.662962962962965</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="5"/>
+        <v>47.444444444444443</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="5"/>
+        <v>53.080267379679142</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="5"/>
+        <v>44.794999999999987</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="7"/>
+        <v>47.104351145038166</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="7"/>
+        <v>58.613333333333337</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="7"/>
+        <v>57.319061371841151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <f t="shared" si="6"/>
         <v>29000</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <f>A60+500</f>
+      <c r="B61" s="1">
+        <f t="shared" si="5"/>
+        <v>59.897894736842098</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>64.738557844690959</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="5"/>
+        <v>58.472377622377614</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="5"/>
+        <v>46.499591836734695</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="5"/>
+        <v>50.488688046647226</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="5"/>
+        <v>49.10153846153846</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="5"/>
+        <v>47.424855491329481</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="5"/>
+        <v>52.322034632034629</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="5"/>
+        <v>45.628000000000007</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="5"/>
+        <v>47.474362416107375</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="5"/>
+        <v>45.26</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="5"/>
+        <v>45.383225806451613</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="5"/>
+        <v>47.438095238095244</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="5"/>
+        <v>48.222222222222221</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="5"/>
+        <v>53.858342245989306</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="5"/>
+        <v>45.569999999999993</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="7"/>
+        <v>47.894427480916022</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="7"/>
+        <v>59.391111111111108</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="7"/>
+        <v>58.097641395908546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <f t="shared" si="6"/>
         <v>29500</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <f>A61+500</f>
+      <c r="B62" s="1">
+        <f t="shared" si="5"/>
+        <v>60.675789473684212</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>65.51629160063392</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="5"/>
+        <v>59.250349650349648</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="5"/>
+        <v>47.275102040816328</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="5"/>
+        <v>51.267113702623902</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="5"/>
+        <v>49.878461538461544</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="5"/>
+        <v>48.202312138728324</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="5"/>
+        <v>53.100173160173156</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="5"/>
+        <v>46.407166666666669</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="5"/>
+        <v>48.252885906040262</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="5"/>
+        <v>46.034999999999997</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="5"/>
+        <v>46.157419354838709</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="5"/>
+        <v>48.213227513227515</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="5"/>
+        <v>54.636417112299462</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="5"/>
+        <v>46.344999999999992</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="7"/>
+        <v>48.684503816793885</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="7"/>
+        <v>60.168888888888894</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="7"/>
+        <v>58.876221419975934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <f t="shared" si="6"/>
         <v>30000</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="5"/>
+        <v>61.453684210526312</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>66.294025356576853</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="5"/>
+        <v>60.028321678321682</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="5"/>
+        <v>48.050612244897955</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="5"/>
+        <v>52.045539358600585</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="5"/>
+        <v>50.655384615384612</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="5"/>
+        <v>48.979768786127167</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="5"/>
+        <v>53.878311688311683</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="5"/>
+        <v>47.186333333333337</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="5"/>
+        <v>49.031409395973149</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="5"/>
+        <v>46.81</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="5"/>
+        <v>46.931612903225798</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="5"/>
+        <v>48.988359788359794</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="5"/>
+        <v>49.777777777777779</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="5"/>
+        <v>55.414491978609618</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="5"/>
+        <v>47.11999999999999</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="7"/>
+        <v>49.474580152671741</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="7"/>
+        <v>60.946666666666665</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="7"/>
+        <v>59.654801444043315</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
+++ b/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="9225" activeTab="2"/>
+    <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="9225" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission_Attributes" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Transmission_Alternatives" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1450,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:T33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1657,2466 +1658,1246 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <f>A3+300</f>
-        <v>300</v>
+        <f>A3+2000</f>
+        <v>2000</v>
       </c>
       <c r="B4" s="1">
         <f>((($A4/1000)+B$1)/B$1)*B$3</f>
-        <v>15.246736842105264</v>
+        <v>17.891578947368419</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:T18" si="0">((($A4/1000)+C$1)/C$1)*C$3</f>
-        <v>20.096640253565766</v>
+        <f t="shared" ref="C4:T9" si="0">((($A4/1000)+C$1)/C$1)*C$3</f>
+        <v>22.740935023771787</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>13.816783216783216</v>
+        <v>16.461888111888111</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>1.9853061224489799</v>
+        <v>4.622040816326531</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>5.8070553935860048</v>
+        <v>8.4537026239067057</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>4.506153846153846</v>
+        <v>7.1476923076923065</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>2.7988439306358379</v>
+        <v>5.4421965317919083</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>7.6568831168831171</v>
+        <v>10.302554112554112</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.9038333333333336</v>
+        <v>3.5530000000000004</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>2.787114093959731</v>
+        <v>5.4340939597315439</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>0.77500000000000002</v>
+        <v>3.41</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.94451612903225801</v>
+        <v>3.576774193548387</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>2.9455026455026458</v>
+        <v>5.5809523809523816</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>3.5777777777777775</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>9.1968449197860966</v>
+        <v>11.842299465240641</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>1.085</v>
+        <v>3.7199999999999993</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>2.5440458015267171</v>
+        <v>5.2303053435114499</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>14.746666666666668</v>
+        <v>17.391111111111112</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>13.407148014440434</v>
+        <v>16.054320096269553</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <f t="shared" ref="A5:A34" si="1">A4+300</f>
-        <v>600</v>
+        <f t="shared" ref="A5:A10" si="1">A4+2000</f>
+        <v>4000</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:Q34" si="2">((($A5/1000)+B$1)/B$1)*B$3</f>
-        <v>15.713473684210525</v>
+        <f t="shared" ref="B5:B9" si="2">((($A5/1000)+B$1)/B$1)*B$3</f>
+        <v>21.003157894736841</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>20.563280507131537</v>
+        <v>25.851870047543578</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>14.283566433566431</v>
+        <v>19.573776223776225</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2.4506122448979593</v>
+        <v>7.7240816326530615</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>6.2741107871720114</v>
+        <v>11.56740524781341</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>4.9723076923076928</v>
+        <v>10.255384615384616</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>3.2653179190751449</v>
+        <v>8.5520231213872826</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>8.1237662337662329</v>
+        <v>13.415108225108227</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>1.3713333333333335</v>
+        <v>6.6696666666666671</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>3.2542281879194626</v>
+        <v>8.5481879194630874</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>1.24</v>
+        <v>6.51</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>1.4090322580645158</v>
+        <v>6.6735483870967736</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>3.410582010582011</v>
+        <v>8.681481481481482</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>4.0444444444444443</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>9.6636898395721929</v>
+        <v>14.954598930481284</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>1.55</v>
+        <v>6.82</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="0"/>
-        <v>3.0180916030534353</v>
+        <v>8.3906106870229014</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="0"/>
-        <v>15.213333333333333</v>
+        <v>20.502222222222223</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>13.874296028880865</v>
+        <v>19.168640192539108</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="2"/>
-        <v>16.18021052631579</v>
+        <v>24.114736842105263</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>21.029920760697305</v>
+        <v>28.962805071315366</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>14.750349650349651</v>
+        <v>22.685664335664335</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>2.9159183673469387</v>
+        <v>10.826122448979593</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>6.7411661807580172</v>
+        <v>14.681107871720116</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>5.4384615384615378</v>
+        <v>13.363076923076923</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>3.7317919075144506</v>
+        <v>11.66184971098266</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>8.5906493506493522</v>
+        <v>16.527662337662338</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>1.8388333333333338</v>
+        <v>9.7863333333333351</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>3.7213422818791946</v>
+        <v>11.662281879194632</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>1.7050000000000001</v>
+        <v>9.61</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>1.8735483870967742</v>
+        <v>9.7703225806451606</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>3.8756613756613758</v>
+        <v>11.782010582010582</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>4.5111111111111111</v>
+        <v>12.444444444444445</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>10.130534759358289</v>
+        <v>18.066898395721925</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>2.0150000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="0"/>
-        <v>3.4921374045801521</v>
+        <v>11.550916030534351</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="0"/>
-        <v>15.680000000000001</v>
+        <v>23.613333333333333</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>14.3414440433213</v>
+        <v>22.282960288808663</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
-        <v>16.646947368421053</v>
+        <v>27.226315789473681</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>21.496561014263072</v>
+        <v>32.07374009508716</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>15.217132867132866</v>
+        <v>25.797552447552444</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3.3812244897959176</v>
+        <v>13.928163265306123</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>7.2082215743440221</v>
+        <v>17.79481049562682</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>5.9046153846153846</v>
+        <v>16.470769230769228</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>4.1982658959537575</v>
+        <v>14.771676300578035</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>9.057532467532468</v>
+        <v>19.64021645021645</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>2.3063333333333338</v>
+        <v>12.903</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>4.1884563758389257</v>
+        <v>14.776375838926175</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>2.17</v>
+        <v>12.709999999999997</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>2.3380645161290321</v>
+        <v>12.867096774193548</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>4.340740740740741</v>
+        <v>14.882539682539681</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>4.9777777777777779</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>10.597379679144385</v>
+        <v>21.179197860962567</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
-        <v>2.48</v>
+        <v>13.02</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="0"/>
-        <v>3.9661832061068694</v>
+        <v>14.711221374045801</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="0"/>
-        <v>16.146666666666665</v>
+        <v>26.724444444444444</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>14.80859205776173</v>
+        <v>25.397280385078219</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="2"/>
-        <v>17.113684210526316</v>
+        <v>30.337894736842106</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>21.96320126782884</v>
+        <v>35.184675118858948</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>15.683916083916083</v>
+        <v>28.909440559440554</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>3.8465306122448983</v>
+        <v>17.030204081632654</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>7.6752769679300279</v>
+        <v>20.908513119533527</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>6.3707692307692296</v>
+        <v>19.578461538461536</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6647398843930636</v>
+        <v>17.881502890173412</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>9.5244155844155856</v>
+        <v>22.752770562770564</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>2.7738333333333336</v>
+        <v>16.019666666666666</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6555704697986577</v>
+        <v>17.890469798657715</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>2.6349999999999998</v>
+        <v>15.809999999999997</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>2.8025806451612905</v>
+        <v>15.963870967741935</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>4.8058201058201062</v>
+        <v>17.983068783068781</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>5.4444444444444446</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>11.064224598930481</v>
+        <v>24.291497326203206</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>2.9449999999999994</v>
+        <v>16.12</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>4.4402290076335875</v>
+        <v>17.871526717557249</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
-        <v>16.613333333333333</v>
+        <v>29.835555555555555</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>15.275740072202165</v>
+        <v>28.511600481347774</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>12000</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="2"/>
-        <v>17.580421052631582</v>
+        <v>33.449473684210524</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>22.429841521394614</v>
+        <v>38.295610142630743</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>16.150699300699301</v>
+        <v>32.021328671328668</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>4.3118367346938777</v>
+        <v>20.132244897959186</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>8.1423323615160346</v>
+        <v>24.022215743440231</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>6.8369230769230773</v>
+        <v>22.686153846153843</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>5.1312138728323697</v>
+        <v>20.991329479768787</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>9.9912987012987013</v>
+        <v>25.865324675324675</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>3.2413333333333334</v>
+        <v>19.136333333333337</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>5.1226845637583889</v>
+        <v>21.004563758389263</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>18.909999999999997</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>3.2670967741935479</v>
+        <v>19.060645161290321</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>5.2708994708994714</v>
+        <v>21.083597883597886</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>5.9111111111111105</v>
+        <v>21.777777777777779</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="0"/>
-        <v>11.531069518716578</v>
+        <v>27.403796791443849</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>19.22</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="0"/>
-        <v>4.9142748091603048</v>
+        <v>21.031832061068698</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="0"/>
-        <v>17.080000000000002</v>
+        <v>32.946666666666665</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>15.742888086642598</v>
+        <v>31.625920577617329</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>14000</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:Q33" si="3">((($A10/1000)+B$1)/B$1)*B$3</f>
-        <v>18.047157894736841</v>
+        <f t="shared" ref="B10:Q25" si="3">((($A10/1000)+B$1)/B$1)*B$3</f>
+        <v>36.561052631578946</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="3"/>
-        <v>22.896481774960378</v>
+        <v>41.40654516640253</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>16.617482517482518</v>
+        <v>35.133216783216781</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>4.7771428571428567</v>
+        <v>23.234285714285715</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>8.6093877551020412</v>
+        <v>27.135918367346939</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>7.3030769230769232</v>
+        <v>25.793846153846157</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>5.5976878612716758</v>
+        <v>24.101156069364162</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>10.458181818181819</v>
+        <v>28.97787878787879</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>3.7088333333333332</v>
+        <v>22.253</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>5.58979865771812</v>
+        <v>24.118657718120804</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>3.5649999999999999</v>
+        <v>22.009999999999994</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>3.7316129032258063</v>
+        <v>22.157419354838709</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>5.7359788359788366</v>
+        <v>24.184126984126987</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="3"/>
-        <v>6.3777777777777773</v>
+        <v>24.888888888888889</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="3"/>
-        <v>11.997914438502676</v>
+        <v>30.516096256684492</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="3"/>
-        <v>3.875</v>
+        <v>22.32</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ref="R10:T33" si="4">((($A10/1000)+R$1)/R$1)*R$3</f>
-        <v>5.3883206106870221</v>
+        <f t="shared" ref="R10:T24" si="4">((($A10/1000)+R$1)/R$1)*R$3</f>
+        <v>24.192137404580148</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
-        <v>17.546666666666667</v>
+        <v>36.05777777777778</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="4"/>
-        <v>16.210036101083034</v>
+        <v>34.740240673886881</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>2400</v>
+        <f>A10+2000</f>
+        <v>16000</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="3"/>
-        <v>18.513894736842108</v>
+        <v>39.672631578947367</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="3"/>
-        <v>23.363122028526149</v>
+        <v>44.517480190174325</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>17.084265734265735</v>
+        <v>38.245104895104895</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>5.2424489795918365</v>
+        <v>26.336326530612247</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>9.0764431486880461</v>
+        <v>30.249620991253639</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>7.7692307692307683</v>
+        <v>28.901538461538465</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>6.0641618497109828</v>
+        <v>27.210982658959537</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>10.925064935064935</v>
+        <v>32.090432900432901</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>4.176333333333333</v>
+        <v>25.369666666666671</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>6.056912751677852</v>
+        <v>27.232751677852345</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>25.109999999999996</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>4.1961290322580647</v>
+        <v>25.254193548387093</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>6.2010582010582018</v>
+        <v>27.284656084656088</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>6.844444444444445</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>12.46475935828877</v>
+        <v>33.628395721925131</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>4.34</v>
+        <v>25.419999999999995</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="4"/>
-        <v>5.8623664122137402</v>
+        <v>27.352442748091597</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
-        <v>18.013333333333332</v>
+        <v>39.168888888888887</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="4"/>
-        <v>16.677184115523467</v>
+        <v>37.854560770156439</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <f t="shared" si="1"/>
-        <v>2700</v>
+        <f>A11+2000</f>
+        <v>18000</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="3"/>
-        <v>18.980631578947367</v>
+        <v>42.784210526315789</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="3"/>
-        <v>23.82976228209192</v>
+        <v>47.628415213946113</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>17.551048951048951</v>
+        <v>41.356993006993001</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>5.7077551020408164</v>
+        <v>29.438367346938779</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>9.5434985422740528</v>
+        <v>33.363323615160347</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>8.235384615384616</v>
+        <v>32.009230769230768</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="3"/>
-        <v>6.5306358381502898</v>
+        <v>30.320809248554912</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>11.391948051948054</v>
+        <v>35.202987012987016</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>4.643833333333335</v>
+        <v>28.486333333333334</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>6.5240268456375841</v>
+        <v>30.34684563758389</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>4.4950000000000001</v>
+        <v>28.209999999999994</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>4.660645161290323</v>
+        <v>28.350967741935481</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>6.6661375661375679</v>
+        <v>30.385185185185186</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="3"/>
-        <v>7.3111111111111118</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>12.931604278074866</v>
+        <v>36.74069518716577</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="3"/>
-        <v>4.8049999999999997</v>
+        <v>28.519999999999996</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="4"/>
-        <v>6.3364122137404566</v>
+        <v>30.512748091603047</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="4"/>
-        <v>18.479999999999997</v>
+        <v>42.28</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="4"/>
-        <v>17.1443321299639</v>
+        <v>40.968880866425991</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" ref="A13" si="5">A12+2000</f>
+        <v>20000</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="3"/>
-        <v>19.447368421052634</v>
+        <v>45.895789473684204</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="3"/>
-        <v>24.296402535657684</v>
+        <v>50.7393502377179</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>18.017832167832168</v>
+        <v>44.468881118881114</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>6.1730612244897962</v>
+        <v>32.540408163265305</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>10.010553935860056</v>
+        <v>36.477026239067051</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>8.7015384615384619</v>
+        <v>35.116923076923079</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="3"/>
-        <v>6.997109826589595</v>
+        <v>33.430635838150287</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>11.85883116883117</v>
+        <v>38.315541125541131</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>5.1113333333333335</v>
+        <v>31.603000000000005</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>6.9911409395973152</v>
+        <v>33.460939597315431</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>4.96</v>
+        <v>31.309999999999995</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>5.1251612903225805</v>
+        <v>31.447741935483869</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>7.1312169312169305</v>
+        <v>33.485714285714288</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="3"/>
-        <v>7.7777777777777777</v>
+        <v>34.222222222222221</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>13.398449197860963</v>
+        <v>39.852994652406416</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="3"/>
-        <v>5.27</v>
+        <v>31.619999999999994</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="4"/>
-        <v>6.8104580152671756</v>
+        <v>33.673053435114497</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="4"/>
-        <v>18.946666666666665</v>
+        <v>45.391111111111108</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="4"/>
-        <v>17.611480144404332</v>
+        <v>44.08320096269555</v>
       </c>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="3"/>
-        <v>19.914105263157893</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>24.763042789223451</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>18.484615384615385</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="3"/>
-        <v>6.6383673469387743</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>10.477609329446064</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>9.1676923076923078</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4635838150289011</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>12.325714285714286</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5788333333333338</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4582550335570472</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="3"/>
-        <v>5.4249999999999998</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="3"/>
-        <v>5.589677419354838</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="3"/>
-        <v>7.5962962962962965</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="3"/>
-        <v>8.2444444444444436</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="3"/>
-        <v>13.865294117647059</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="3"/>
-        <v>5.7349999999999985</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="4"/>
-        <v>7.284503816793892</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="4"/>
-        <v>19.413333333333334</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="4"/>
-        <v>18.078628158844761</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="3"/>
-        <v>20.380842105263159</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="3"/>
-        <v>25.229683042789219</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>18.951398601398601</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1036734693877559</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>10.944664723032069</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>9.6338461538461537</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9300578034682081</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>12.792597402597403</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>6.046333333333334</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9253691275167784</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="3"/>
-        <v>5.89</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="3"/>
-        <v>6.0541935483870963</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0613756613756617</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>8.7111111111111104</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="3"/>
-        <v>14.332139037433157</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="4"/>
-        <v>7.7585496183206102</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="4"/>
-        <v>19.88</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="4"/>
-        <v>18.545776173285198</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>3900</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="3"/>
-        <v>20.847578947368419</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="3"/>
-        <v>25.696323296354993</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>19.418181818181818</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="3"/>
-        <v>7.5689795918367349</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>11.411720116618074</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>10.1</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3965317919075151</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>13.259480519480519</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>6.5138333333333334</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3924832214765086</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="3"/>
-        <v>6.3549999999999986</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="3"/>
-        <v>6.5187096774193547</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="3"/>
-        <v>8.526455026455027</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>9.1777777777777789</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="3"/>
-        <v>14.798983957219251</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="3"/>
-        <v>6.6649999999999991</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="4"/>
-        <v>8.2325954198473266</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="4"/>
-        <v>20.346666666666668</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="4"/>
-        <v>19.012924187725631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>4200</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="3"/>
-        <v>21.314315789473682</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="3"/>
-        <v>26.162963549920761</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>19.884965034965035</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0342857142857138</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>11.878775510204081</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>10.566153846153846</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8630057803468212</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>13.726363636363638</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>6.9813333333333345</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8595973154362415</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="3"/>
-        <v>6.82</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="3"/>
-        <v>6.9832258064516122</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.9915343915343939</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>9.6444444444444457</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="3"/>
-        <v>15.265828877005347</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="3"/>
-        <v>7.13</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="4"/>
-        <v>8.7066412213740438</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="4"/>
-        <v>20.813333333333333</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="4"/>
-        <v>19.480072202166067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>4500</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="3"/>
-        <v>21.781052631578945</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="3"/>
-        <v>26.629603803486525</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>20.351748251748251</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="3"/>
-        <v>8.4995918367346945</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>12.345830903790086</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>11.032307692307691</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="3"/>
-        <v>9.3294797687861273</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>14.193246753246756</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4488333333333339</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="3"/>
-        <v>9.3267114093959727</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="3"/>
-        <v>7.2850000000000001</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="3"/>
-        <v>7.4477419354838705</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="3"/>
-        <v>9.4566137566137556</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>10.111111111111111</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="3"/>
-        <v>15.732673796791444</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="3"/>
-        <v>7.5949999999999998</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="4"/>
-        <v>9.1806870229007629</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="4"/>
-        <v>21.28</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" si="4"/>
-        <v>19.947220216606496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>4800</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="3"/>
-        <v>22.247789473684211</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>27.096244057052292</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>20.818531468531468</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.9648979591836717</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>12.812886297376094</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>11.498461538461539</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="3"/>
-        <v>9.7959537572254334</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
-        <v>14.66012987012987</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9163333333333341</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="3"/>
-        <v>9.7938255033557038</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="3"/>
-        <v>7.75</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="3"/>
-        <v>7.9122580645161271</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="3"/>
-        <v>9.9216931216931226</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="3"/>
-        <v>10.577777777777778</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="3"/>
-        <v>16.19951871657754</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.06</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="4"/>
-        <v>9.6547328244274784</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="4"/>
-        <v>21.746666666666666</v>
-      </c>
-      <c r="T19" s="1">
-        <f t="shared" si="4"/>
-        <v>20.414368231046929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
-        <f>A19+300</f>
-        <v>5100</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="3"/>
-        <v>22.71452631578947</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="3"/>
-        <v>27.562884310618067</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>21.285314685314685</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="3"/>
-        <v>9.4302040816326524</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>13.279941690962096</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>11.964615384615383</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>10.262427745664739</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>15.127012987012986</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3838333333333335</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="3"/>
-        <v>10.260939597315437</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="3"/>
-        <v>8.2149999999999981</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3767741935483855</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="3"/>
-        <v>10.386772486772486</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="3"/>
-        <v>11.044444444444444</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="3"/>
-        <v>16.666363636363638</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="3"/>
-        <v>8.5250000000000004</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="4"/>
-        <v>10.128778625954197</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="4"/>
-        <v>22.213333333333331</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="4"/>
-        <v>20.881516245487362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>5400</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="3"/>
-        <v>23.181263157894737</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>28.029524564183834</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>21.752097902097901</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
-        <v>9.895510204081635</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>13.746997084548104</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>12.430769230769229</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>10.728901734104047</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
-        <v>15.593896103896103</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8513333333333346</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="3"/>
-        <v>10.728053691275168</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="3"/>
-        <v>8.68</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8412903225806438</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="3"/>
-        <v>10.851851851851853</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="3"/>
-        <v>11.511111111111111</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="3"/>
-        <v>17.133208556149736</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
-        <v>8.99</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="4"/>
-        <v>10.602824427480916</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="4"/>
-        <v>22.68</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="4"/>
-        <v>21.348664259927794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>5700</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="3"/>
-        <v>23.647999999999996</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="3"/>
-        <v>28.496164817749602</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>22.218881118881118</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="3"/>
-        <v>10.360816326530612</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="3"/>
-        <v>14.214052478134111</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>12.896923076923079</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="3"/>
-        <v>11.195375722543352</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="3"/>
-        <v>16.060779220779221</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>9.3188333333333357</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="3"/>
-        <v>11.195167785234899</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="3"/>
-        <v>9.1449999999999996</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="3"/>
-        <v>9.3058064516129022</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="3"/>
-        <v>11.316931216931218</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="3"/>
-        <v>11.977777777777778</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="3"/>
-        <v>17.60005347593583</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="3"/>
-        <v>9.4550000000000001</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="4"/>
-        <v>11.076870229007632</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="4"/>
-        <v>23.146666666666665</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="4"/>
-        <v>21.815812274368231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="3"/>
-        <v>24.114736842105263</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="3"/>
-        <v>28.962805071315366</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>22.685664335664335</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>10.826122448979593</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="3"/>
-        <v>14.681107871720116</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>13.363076923076923</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="3"/>
-        <v>11.66184971098266</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="3"/>
-        <v>16.527662337662338</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>9.7863333333333351</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="3"/>
-        <v>11.662281879194632</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="3"/>
-        <v>9.61</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="3"/>
-        <v>9.7703225806451606</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="3"/>
-        <v>11.782010582010582</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="3"/>
-        <v>12.444444444444445</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="3"/>
-        <v>18.066898395721925</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="3"/>
-        <v>9.92</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="4"/>
-        <v>11.550916030534351</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="4"/>
-        <v>23.613333333333333</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="4"/>
-        <v>22.282960288808663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>6300</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="3"/>
-        <v>24.581473684210525</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>29.42944532488114</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>23.152447552447551</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>11.29142857142857</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="3"/>
-        <v>15.14816326530612</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>13.829230769230769</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="3"/>
-        <v>12.128323699421966</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>16.994545454545456</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>10.253833333333333</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="3"/>
-        <v>12.129395973154361</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="3"/>
-        <v>10.074999999999999</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="3"/>
-        <v>10.234838709677417</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="3"/>
-        <v>12.247089947089949</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="3"/>
-        <v>12.911111111111113</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="3"/>
-        <v>18.533743315508023</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="3"/>
-        <v>10.385</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="4"/>
-        <v>12.024961832061067</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="4"/>
-        <v>24.08</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="4"/>
-        <v>22.750108303249096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>6600</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="3"/>
-        <v>25.048210526315792</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="3"/>
-        <v>29.896085578446908</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>23.619230769230768</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>11.756734693877551</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>15.615218658892125</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>14.295384615384613</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="3"/>
-        <v>12.59479768786127</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="3"/>
-        <v>17.46142857142857</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="3"/>
-        <v>10.721333333333334</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="3"/>
-        <v>12.596510067114094</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="3"/>
-        <v>10.54</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="3"/>
-        <v>10.699354838709677</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="3"/>
-        <v>12.71216931216931</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="3"/>
-        <v>13.377777777777778</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="3"/>
-        <v>19.000588235294117</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" ref="Q25:T33" si="5">((($A25/1000)+Q$1)/Q$1)*Q$3</f>
-        <v>10.85</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="5"/>
-        <v>12.499007633587786</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="5"/>
-        <v>24.546666666666663</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="5"/>
-        <v>23.217256317689529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>6900</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" ref="B26:Q33" si="6">((($A26/1000)+B$1)/B$1)*B$3</f>
-        <v>25.514947368421048</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>30.362725832012678</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>24.086013986013985</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
-        <v>12.222040816326533</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="6"/>
-        <v>16.082274052478134</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="6"/>
-        <v>14.761538461538461</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="6"/>
-        <v>13.06127167630058</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="6"/>
-        <v>17.928311688311688</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="6"/>
-        <v>11.188833333333335</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="6"/>
-        <v>13.063624161073825</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="6"/>
-        <v>11.005000000000001</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="6"/>
-        <v>11.163870967741936</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="6"/>
-        <v>13.177248677248679</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="6"/>
-        <v>13.844444444444445</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="6"/>
-        <v>19.467433155080215</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="6"/>
-        <v>11.315</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="5"/>
-        <v>12.973053435114505</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="5"/>
-        <v>25.013333333333328</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="5"/>
-        <v>23.684404332129965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="6"/>
-        <v>25.981684210526314</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="6"/>
-        <v>30.829366085578449</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>24.552797202797201</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="6"/>
-        <v>12.687346938775509</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="6"/>
-        <v>16.549329446064142</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="6"/>
-        <v>15.227692307692308</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="6"/>
-        <v>13.527745664739884</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="6"/>
-        <v>18.395194805194805</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="6"/>
-        <v>11.656333333333334</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="6"/>
-        <v>13.530738255033556</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="6"/>
-        <v>11.47</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="6"/>
-        <v>11.628387096774194</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="6"/>
-        <v>13.642328042328044</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="6"/>
-        <v>14.31111111111111</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="6"/>
-        <v>19.93427807486631</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="6"/>
-        <v>11.78</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="5"/>
-        <v>13.447099236641218</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="5"/>
-        <v>25.479999999999997</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="5"/>
-        <v>24.151552346570398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="6"/>
-        <v>26.448421052631577</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="6"/>
-        <v>31.296006339144213</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>25.019580419580418</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="6"/>
-        <v>13.152653061224491</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="6"/>
-        <v>17.016384839650144</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="6"/>
-        <v>15.693846153846152</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="6"/>
-        <v>13.99421965317919</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="6"/>
-        <v>18.862077922077926</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="6"/>
-        <v>12.123833333333335</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="6"/>
-        <v>13.997852348993289</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="6"/>
-        <v>11.935</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="6"/>
-        <v>12.092903225806451</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="6"/>
-        <v>14.107407407407406</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="6"/>
-        <v>14.777777777777779</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="6"/>
-        <v>20.401122994652404</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="6"/>
-        <v>12.244999999999999</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="5"/>
-        <v>13.921145038167937</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="5"/>
-        <v>25.946666666666665</v>
-      </c>
-      <c r="T28" s="1">
-        <f t="shared" si="5"/>
-        <v>24.618700361010827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>7800</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="6"/>
-        <v>26.915157894736844</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>31.762646592709981</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>25.486363636363635</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>13.617959183673467</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>17.483440233236152</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>16.16</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="6"/>
-        <v>14.460693641618498</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="6"/>
-        <v>19.32896103896104</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="6"/>
-        <v>12.591333333333335</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="6"/>
-        <v>14.464966442953017</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="6"/>
-        <v>12.4</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="6"/>
-        <v>12.557419354838709</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="6"/>
-        <v>14.572486772486775</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="6"/>
-        <v>15.244444444444445</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="6"/>
-        <v>20.867967914438502</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="6"/>
-        <v>12.709999999999997</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="5"/>
-        <v>14.395190839694655</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="5"/>
-        <v>26.413333333333334</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="5"/>
-        <v>25.08584837545126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
-        <f>A29+300</f>
-        <v>8100</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="6"/>
-        <v>27.381894736842106</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="6"/>
-        <v>32.229286846275748</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>25.953146853146851</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="6"/>
-        <v>14.083265306122449</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="6"/>
-        <v>17.950495626822157</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="6"/>
-        <v>16.626153846153844</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="6"/>
-        <v>14.927167630057802</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="6"/>
-        <v>19.795844155844154</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="6"/>
-        <v>13.058833333333334</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="6"/>
-        <v>14.932080536912752</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="6"/>
-        <v>12.864999999999998</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="6"/>
-        <v>13.021935483870967</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="6"/>
-        <v>15.037566137566136</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="6"/>
-        <v>15.71111111111111</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="6"/>
-        <v>21.3348128342246</v>
-      </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="6"/>
-        <v>13.175000000000001</v>
-      </c>
-      <c r="R30" s="1">
-        <f t="shared" si="5"/>
-        <v>14.869236641221372</v>
-      </c>
-      <c r="S30" s="1">
-        <f t="shared" si="5"/>
-        <v>26.880000000000003</v>
-      </c>
-      <c r="T30" s="1">
-        <f t="shared" si="5"/>
-        <v>25.552996389891693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>8400</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="6"/>
-        <v>27.848631578947366</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="6"/>
-        <v>32.695927099841526</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>26.419930069930068</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="6"/>
-        <v>14.548571428571432</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="6"/>
-        <v>18.417551020408162</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="6"/>
-        <v>17.092307692307692</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="6"/>
-        <v>15.393641618497112</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="6"/>
-        <v>20.262727272727272</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="6"/>
-        <v>13.526333333333334</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="6"/>
-        <v>15.399194630872485</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="6"/>
-        <v>13.329999999999998</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="6"/>
-        <v>13.486451612903227</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="6"/>
-        <v>15.502645502645503</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="6"/>
-        <v>16.177777777777777</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="6"/>
-        <v>21.801657754010698</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="6"/>
-        <v>13.64</v>
-      </c>
-      <c r="R31" s="1">
-        <f t="shared" si="5"/>
-        <v>15.343282442748091</v>
-      </c>
-      <c r="S31" s="1">
-        <f t="shared" si="5"/>
-        <v>27.346666666666664</v>
-      </c>
-      <c r="T31" s="1">
-        <f t="shared" si="5"/>
-        <v>26.020144404332132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>8700</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="6"/>
-        <v>28.315368421052629</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="6"/>
-        <v>33.16256735340729</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>26.886713286713288</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="6"/>
-        <v>15.013877551020407</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="6"/>
-        <v>18.884606413994167</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="6"/>
-        <v>17.558461538461536</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="6"/>
-        <v>15.860115606936416</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="6"/>
-        <v>20.729610389610389</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="6"/>
-        <v>13.993833333333331</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="6"/>
-        <v>15.866308724832212</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="6"/>
-        <v>13.794999999999998</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="6"/>
-        <v>13.950967741935482</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="6"/>
-        <v>15.967724867724867</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="6"/>
-        <v>16.644444444444442</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="6"/>
-        <v>22.268502673796789</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="6"/>
-        <v>14.104999999999997</v>
-      </c>
-      <c r="R32" s="1">
-        <f t="shared" si="5"/>
-        <v>15.817328244274808</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" si="5"/>
-        <v>27.813333333333333</v>
-      </c>
-      <c r="T32" s="1">
-        <f t="shared" si="5"/>
-        <v>26.487292418772558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="6"/>
-        <v>28.782105263157895</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="6"/>
-        <v>33.629207606973054</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>27.353496503496501</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="6"/>
-        <v>15.47918367346939</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="6"/>
-        <v>19.351661807580172</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="6"/>
-        <v>18.024615384615384</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="6"/>
-        <v>16.326589595375722</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="6"/>
-        <v>21.196493506493507</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="6"/>
-        <v>14.461333333333334</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="6"/>
-        <v>16.333422818791945</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="6"/>
-        <v>14.259999999999998</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="6"/>
-        <v>14.415483870967742</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="6"/>
-        <v>16.432804232804234</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="6"/>
-        <v>17.111111111111111</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" si="6"/>
-        <v>22.735347593582887</v>
-      </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="6"/>
-        <v>14.57</v>
-      </c>
-      <c r="R33" s="1">
-        <f t="shared" si="5"/>
-        <v>16.291374045801525</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="5"/>
-        <v>28.28</v>
-      </c>
-      <c r="T33" s="1">
-        <f t="shared" si="5"/>
-        <v>26.954440433212998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4137,7 +2918,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="2:20">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4158,7 +2939,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="2:20">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4179,7 +2960,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="2:20">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4200,7 +2981,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="2:20">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4221,7 +3002,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="2:20">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4242,7 +3023,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="2:20">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4263,7 +3044,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="2:20">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4284,7 +3065,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="2:20">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4305,7 +3086,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="2:20">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4326,7 +3107,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="2:20">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4347,7 +3128,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="2:20">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4368,7 +3149,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="2:20">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4389,7 +3170,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="2:20">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4410,7 +3191,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="2:20">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5194,4 +3975,346 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F15:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="15" spans="6:20">
+      <c r="F15">
+        <f>F18*1000</f>
+        <v>3156000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:T15" si="0">G18*1000</f>
+        <v>1788000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2673000</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3311000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>827000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1655000</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>551000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>4603000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3617000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1150000</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2662000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>7747000</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>6163000</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>18286000</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>4594000</v>
+      </c>
+    </row>
+    <row r="16" spans="6:20">
+      <c r="F16">
+        <f t="shared" ref="F16:T16" si="1">F19*1000</f>
+        <v>3156000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1788000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2673000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3311000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>827000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1655000</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>551000</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>4603000</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>3617000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1150000</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>2662000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>7747000</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>6163000</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>18286000</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>4594000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:20">
+      <c r="F17">
+        <f t="shared" ref="F17:T17" si="2">F20*1000</f>
+        <v>3156000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1788000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2673000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>3311000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>827000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1655000</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>551000</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>4603000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>3617000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>1150000</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2662000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>7747000</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>6163000</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>18286000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>4594000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:20">
+      <c r="F18">
+        <v>3156</v>
+      </c>
+      <c r="G18">
+        <v>1788</v>
+      </c>
+      <c r="H18">
+        <v>2673</v>
+      </c>
+      <c r="I18">
+        <v>3311</v>
+      </c>
+      <c r="J18">
+        <v>827</v>
+      </c>
+      <c r="K18">
+        <v>1655</v>
+      </c>
+      <c r="L18">
+        <v>551</v>
+      </c>
+      <c r="M18">
+        <v>4603</v>
+      </c>
+      <c r="N18">
+        <v>3617</v>
+      </c>
+      <c r="O18">
+        <v>1150</v>
+      </c>
+      <c r="P18">
+        <v>2662</v>
+      </c>
+      <c r="Q18">
+        <v>7747</v>
+      </c>
+      <c r="R18">
+        <v>6163</v>
+      </c>
+      <c r="S18">
+        <v>18286</v>
+      </c>
+      <c r="T18">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="19" spans="6:20">
+      <c r="F19">
+        <v>3156</v>
+      </c>
+      <c r="G19">
+        <v>1788</v>
+      </c>
+      <c r="H19">
+        <v>2673</v>
+      </c>
+      <c r="I19">
+        <v>3311</v>
+      </c>
+      <c r="J19">
+        <v>827</v>
+      </c>
+      <c r="K19">
+        <v>1655</v>
+      </c>
+      <c r="L19">
+        <v>551</v>
+      </c>
+      <c r="M19">
+        <v>4603</v>
+      </c>
+      <c r="N19">
+        <v>3617</v>
+      </c>
+      <c r="O19">
+        <v>1150</v>
+      </c>
+      <c r="P19">
+        <v>2662</v>
+      </c>
+      <c r="Q19">
+        <v>7747</v>
+      </c>
+      <c r="R19">
+        <v>6163</v>
+      </c>
+      <c r="S19">
+        <v>18286</v>
+      </c>
+      <c r="T19">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20">
+      <c r="F20">
+        <v>3156</v>
+      </c>
+      <c r="G20">
+        <v>1788</v>
+      </c>
+      <c r="H20">
+        <v>2673</v>
+      </c>
+      <c r="I20">
+        <v>3311</v>
+      </c>
+      <c r="J20">
+        <v>827</v>
+      </c>
+      <c r="K20">
+        <v>1655</v>
+      </c>
+      <c r="L20">
+        <v>551</v>
+      </c>
+      <c r="M20">
+        <v>4603</v>
+      </c>
+      <c r="N20">
+        <v>3617</v>
+      </c>
+      <c r="O20">
+        <v>1150</v>
+      </c>
+      <c r="P20">
+        <v>2662</v>
+      </c>
+      <c r="Q20">
+        <v>7747</v>
+      </c>
+      <c r="R20">
+        <v>6163</v>
+      </c>
+      <c r="S20">
+        <v>18286</v>
+      </c>
+      <c r="T20">
+        <v>4594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
+++ b/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="9225" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission_Attributes" sheetId="1" r:id="rId1"/>
     <sheet name="Generation_Attributes" sheetId="2" r:id="rId2"/>
     <sheet name="Transmission_Alternatives" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Generation Technologies" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Transmission_Lines</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Lifespan_(years)</t>
   </si>
   <si>
-    <t>Operational_Cost_($/GWh)</t>
-  </si>
-  <si>
     <t>CO2_(Short_ton/GWh)</t>
   </si>
   <si>
@@ -283,6 +280,24 @@
   </si>
   <si>
     <t>Capacity MW</t>
+  </si>
+  <si>
+    <t>Petroleum</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>Hydroelectric</t>
+  </si>
+  <si>
+    <t>Operational_Cost_($M/GWh)</t>
   </si>
 </sst>
 </file>
@@ -620,10 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1106,10 +1122,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1122,7 +1139,7 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1136,15 +1153,15 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>44</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -1161,10 +1178,18 @@
       <c r="F2">
         <v>8.51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>E2*10^6</f>
+        <v>2349</v>
+      </c>
+      <c r="H2">
+        <f>G2/1000</f>
+        <v>2.3490000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.85</v>
@@ -1181,10 +1206,18 @@
       <c r="F3">
         <v>919.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">E3*10^6</f>
+        <v>2404</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="1">G3/1000</f>
+        <v>2.4039999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -1201,10 +1234,18 @@
       <c r="F4">
         <v>865.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2159</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.1589999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.85</v>
@@ -1221,10 +1262,18 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11884</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>11.884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.61</v>
@@ -1241,10 +1290,18 @@
       <c r="F6">
         <v>407.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2591</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.5910000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0.85</v>
@@ -1261,10 +1318,18 @@
       <c r="F7">
         <v>808.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3048</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3.048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -1281,13 +1346,21 @@
       <c r="F8">
         <v>555.69000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3654</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>4603</v>
@@ -1301,13 +1374,21 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>3617</v>
@@ -1321,13 +1402,21 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>1150</v>
@@ -1341,13 +1430,21 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>2662</v>
@@ -1361,16 +1458,24 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>0.9</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -1381,10 +1486,18 @@
       <c r="F13">
         <v>123.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -1401,10 +1514,18 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.3</v>
@@ -1421,10 +1542,18 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -1440,6 +1569,14 @@
       </c>
       <c r="F16">
         <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2835</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.835</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1586,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U63"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:CF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:T13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1472,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1">
         <f t="array" ref="B1:T1">TRANSPOSE(Transmission_Attributes!D2:D20)</f>
@@ -1658,1456 +1796,3286 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <f>A3+2000</f>
-        <v>2000</v>
+        <f>A3+500</f>
+        <v>500</v>
       </c>
       <c r="B4" s="1">
         <f>((($A4/1000)+B$1)/B$1)*B$3</f>
-        <v>17.891578947368419</v>
+        <v>15.557894736842103</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:T9" si="0">((($A4/1000)+C$1)/C$1)*C$3</f>
-        <v>22.740935023771787</v>
+        <v>20.407733755942946</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>16.461888111888111</v>
+        <v>14.127972027972026</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>4.622040816326531</v>
+        <v>2.2955102040816326</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>8.4537026239067057</v>
+        <v>6.1184256559766768</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>7.1476923076923065</v>
+        <v>4.8169230769230769</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>5.4421965317919083</v>
+        <v>3.1098265895953756</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>10.302554112554112</v>
+        <v>7.9681385281385282</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>3.5530000000000004</v>
+        <v>1.2155000000000002</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>5.4340939597315439</v>
+        <v>3.0985234899328855</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>1.085</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>3.576774193548387</v>
+        <v>1.254193548387097</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>5.5809523809523816</v>
+        <v>3.255555555555556</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>6.2222222222222223</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>11.842299465240641</v>
+        <v>9.5080748663101602</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>3.7199999999999993</v>
+        <v>1.395</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>5.2303053435114499</v>
+        <v>2.8600763358778623</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>17.391111111111112</v>
+        <v>15.057777777777776</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>16.054320096269553</v>
+        <v>13.718580024067387</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <f t="shared" ref="A5:A10" si="1">A4+2000</f>
-        <v>4000</v>
+        <f t="shared" ref="A5:A49" si="1">A4+500</f>
+        <v>1000</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B9" si="2">((($A5/1000)+B$1)/B$1)*B$3</f>
-        <v>21.003157894736841</v>
+        <v>16.335789473684212</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>25.851870047543578</v>
+        <v>21.185467511885893</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>19.573776223776225</v>
+        <v>14.905944055944056</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.7240816326530615</v>
+        <v>3.0710204081632648</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>11.56740524781341</v>
+        <v>6.8968513119533519</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>10.255384615384616</v>
+        <v>5.5938461538461537</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>8.5520231213872826</v>
+        <v>3.8872832369942198</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>13.415108225108227</v>
+        <v>8.7462770562770569</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>6.6696666666666671</v>
+        <v>1.9946666666666668</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>8.5481879194630874</v>
+        <v>3.8770469798657721</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>6.51</v>
+        <v>1.8599999999999997</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>6.6735483870967736</v>
+        <v>2.0283870967741935</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>8.681481481481482</v>
+        <v>4.0306878306878309</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>9.3333333333333339</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>14.954598930481284</v>
+        <v>10.286149732620322</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>6.82</v>
+        <v>2.17</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="0"/>
-        <v>8.3906106870229014</v>
+        <v>3.6501526717557247</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="0"/>
-        <v>20.502222222222223</v>
+        <v>15.835555555555553</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>19.168640192539108</v>
+        <v>14.497160048134777</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="2"/>
-        <v>24.114736842105263</v>
+        <v>17.113684210526316</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>28.962805071315366</v>
+        <v>21.96320126782884</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>22.685664335664335</v>
+        <v>15.683916083916083</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10.826122448979593</v>
+        <v>3.8465306122448983</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>14.681107871720116</v>
+        <v>7.6752769679300279</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>13.363076923076923</v>
+        <v>6.3707692307692296</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>11.66184971098266</v>
+        <v>4.6647398843930636</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>16.527662337662338</v>
+        <v>9.5244155844155856</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>9.7863333333333351</v>
+        <v>2.7738333333333336</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>11.662281879194632</v>
+        <v>4.6555704697986577</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>9.61</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>9.7703225806451606</v>
+        <v>2.8025806451612905</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>11.782010582010582</v>
+        <v>4.8058201058201062</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>12.444444444444445</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>18.066898395721925</v>
+        <v>11.064224598930481</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>9.92</v>
+        <v>2.9449999999999994</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="0"/>
-        <v>11.550916030534351</v>
+        <v>4.4402290076335875</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="0"/>
-        <v>23.613333333333333</v>
+        <v>16.613333333333333</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>22.282960288808663</v>
+        <v>15.275740072202165</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
-        <v>27.226315789473681</v>
+        <v>17.891578947368419</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>32.07374009508716</v>
+        <v>22.740935023771787</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>25.797552447552444</v>
+        <v>16.461888111888111</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>13.928163265306123</v>
+        <v>4.622040816326531</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>17.79481049562682</v>
+        <v>8.4537026239067057</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>16.470769230769228</v>
+        <v>7.1476923076923065</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>14.771676300578035</v>
+        <v>5.4421965317919083</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>19.64021645021645</v>
+        <v>10.302554112554112</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>12.903</v>
+        <v>3.5530000000000004</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>14.776375838926175</v>
+        <v>5.4340939597315439</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>12.709999999999997</v>
+        <v>3.41</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>12.867096774193548</v>
+        <v>3.576774193548387</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>14.882539682539681</v>
+        <v>5.5809523809523816</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>15.555555555555555</v>
+        <v>6.2222222222222223</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>21.179197860962567</v>
+        <v>11.842299465240641</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
-        <v>13.02</v>
+        <v>3.7199999999999993</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="0"/>
-        <v>14.711221374045801</v>
+        <v>5.2303053435114499</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="0"/>
-        <v>26.724444444444444</v>
+        <v>17.391111111111112</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>25.397280385078219</v>
+        <v>16.054320096269553</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="2"/>
-        <v>30.337894736842106</v>
+        <v>18.669473684210523</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>35.184675118858948</v>
+        <v>23.518668779714737</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>28.909440559440554</v>
+        <v>17.239860139860138</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>17.030204081632654</v>
+        <v>5.3975510204081631</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>20.908513119533527</v>
+        <v>9.2321282798833799</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>19.578461538461536</v>
+        <v>7.9246153846153833</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>17.881502890173412</v>
+        <v>6.2196531791907512</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>22.752770562770564</v>
+        <v>11.080692640692641</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>16.019666666666666</v>
+        <v>4.3321666666666676</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>17.890469798657715</v>
+        <v>6.2126174496644291</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>15.809999999999997</v>
+        <v>4.1849999999999996</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>15.963870967741935</v>
+        <v>4.3509677419354835</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>17.983068783068781</v>
+        <v>6.3560846560846551</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>7</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>24.291497326203206</v>
+        <v>12.620374331550801</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>16.12</v>
+        <v>4.4949999999999992</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>17.871526717557249</v>
+        <v>6.0203816793893123</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
-        <v>29.835555555555555</v>
+        <v>18.168888888888887</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>28.511600481347774</v>
+        <v>16.832900120336941</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="2"/>
-        <v>33.449473684210524</v>
+        <v>19.447368421052634</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>38.295610142630743</v>
+        <v>24.296402535657684</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>32.021328671328668</v>
+        <v>18.017832167832168</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>20.132244897959186</v>
+        <v>6.1730612244897962</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>24.022215743440231</v>
+        <v>10.010553935860056</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>22.686153846153843</v>
+        <v>8.7015384615384619</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>20.991329479768787</v>
+        <v>6.997109826589595</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>25.865324675324675</v>
+        <v>11.85883116883117</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>19.136333333333337</v>
+        <v>5.1113333333333335</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>21.004563758389263</v>
+        <v>6.9911409395973152</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>18.909999999999997</v>
+        <v>4.96</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>19.060645161290321</v>
+        <v>5.1251612903225805</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>21.083597883597886</v>
+        <v>7.1312169312169305</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>21.777777777777779</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="0"/>
-        <v>27.403796791443849</v>
+        <v>13.398449197860963</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="0"/>
-        <v>19.22</v>
+        <v>5.27</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="0"/>
-        <v>21.031832061068698</v>
+        <v>6.8104580152671756</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="0"/>
-        <v>32.946666666666665</v>
+        <v>18.946666666666665</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>31.625920577617329</v>
+        <v>17.611480144404332</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:Q25" si="3">((($A10/1000)+B$1)/B$1)*B$3</f>
-        <v>36.561052631578946</v>
+        <v>20.225263157894737</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="3"/>
-        <v>41.40654516640253</v>
+        <v>25.074136291600631</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>35.133216783216781</v>
+        <v>18.795804195804195</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>23.234285714285715</v>
+        <v>6.9485714285714293</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>27.135918367346939</v>
+        <v>10.788979591836734</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>25.793846153846157</v>
+        <v>9.4784615384615378</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>24.101156069364162</v>
+        <v>7.7745664739884397</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>28.97787878787879</v>
+        <v>12.636969696969699</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>22.253</v>
+        <v>5.8905000000000012</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>24.118657718120804</v>
+        <v>7.7696644295302013</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>22.009999999999994</v>
+        <v>5.7350000000000003</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>22.157419354838709</v>
+        <v>5.8993548387096775</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>24.184126984126987</v>
+        <v>7.9063492063492058</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="3"/>
-        <v>24.888888888888889</v>
+        <v>8.5555555555555554</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="3"/>
-        <v>30.516096256684492</v>
+        <v>14.176524064171122</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="3"/>
-        <v>22.32</v>
+        <v>6.0449999999999999</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ref="R10:T24" si="4">((($A10/1000)+R$1)/R$1)*R$3</f>
-        <v>24.192137404580148</v>
+        <f t="shared" ref="R10:T25" si="4">((($A10/1000)+R$1)/R$1)*R$3</f>
+        <v>7.6005343511450381</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
-        <v>36.05777777777778</v>
+        <v>19.72444444444444</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="4"/>
-        <v>34.740240673886881</v>
+        <v>18.39006016847172</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <f>A10+2000</f>
-        <v>16000</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="3"/>
-        <v>39.672631578947367</v>
+        <v>21.003157894736841</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="3"/>
-        <v>44.517480190174325</v>
+        <v>25.851870047543578</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>38.245104895104895</v>
+        <v>19.573776223776225</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>26.336326530612247</v>
+        <v>7.7240816326530615</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>30.249620991253639</v>
+        <v>11.56740524781341</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>28.901538461538465</v>
+        <v>10.255384615384616</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>27.210982658959537</v>
+        <v>8.5520231213872826</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>32.090432900432901</v>
+        <v>13.415108225108227</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>25.369666666666671</v>
+        <v>6.6696666666666671</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>27.232751677852345</v>
+        <v>8.5481879194630874</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>25.109999999999996</v>
+        <v>6.51</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>25.254193548387093</v>
+        <v>6.6735483870967736</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>27.284656084656088</v>
+        <v>8.681481481481482</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>33.628395721925131</v>
+        <v>14.954598930481284</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>25.419999999999995</v>
+        <v>6.82</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="4"/>
-        <v>27.352442748091597</v>
+        <v>8.3906106870229014</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
-        <v>39.168888888888887</v>
+        <v>20.502222222222223</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="4"/>
-        <v>37.854560770156439</v>
+        <v>19.168640192539108</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <f>A11+2000</f>
-        <v>18000</v>
+        <f t="shared" si="1"/>
+        <v>4500</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="3"/>
-        <v>42.784210526315789</v>
+        <v>21.781052631578945</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="3"/>
-        <v>47.628415213946113</v>
+        <v>26.629603803486525</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>41.356993006993001</v>
+        <v>20.351748251748251</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>29.438367346938779</v>
+        <v>8.4995918367346945</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>33.363323615160347</v>
+        <v>12.345830903790086</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>32.009230769230768</v>
+        <v>11.032307692307691</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="3"/>
-        <v>30.320809248554912</v>
+        <v>9.3294797687861273</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>35.202987012987016</v>
+        <v>14.193246753246756</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>28.486333333333334</v>
+        <v>7.4488333333333339</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>30.34684563758389</v>
+        <v>9.3267114093959727</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>28.209999999999994</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>28.350967741935481</v>
+        <v>7.4477419354838705</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>30.385185185185186</v>
+        <v>9.4566137566137556</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="3"/>
-        <v>31.111111111111111</v>
+        <v>10.111111111111111</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>36.74069518716577</v>
+        <v>15.732673796791444</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="3"/>
-        <v>28.519999999999996</v>
+        <v>7.5949999999999998</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="4"/>
-        <v>30.512748091603047</v>
+        <v>9.1806870229007629</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="4"/>
-        <v>42.28</v>
+        <v>21.28</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="4"/>
-        <v>40.968880866425991</v>
+        <v>19.947220216606496</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <f t="shared" ref="A13" si="5">A12+2000</f>
-        <v>20000</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="3"/>
-        <v>45.895789473684204</v>
+        <v>22.558947368421052</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="3"/>
-        <v>50.7393502377179</v>
+        <v>27.407337559429472</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>44.468881118881114</v>
+        <v>21.129720279720278</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>32.540408163265305</v>
+        <v>9.2751020408163285</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>36.477026239067051</v>
+        <v>13.124256559766764</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>35.116923076923079</v>
+        <v>11.809230769230769</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="3"/>
-        <v>33.430635838150287</v>
+        <v>10.10693641618497</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="3"/>
-        <v>38.315541125541131</v>
+        <v>14.971385281385283</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>31.603000000000005</v>
+        <v>8.2280000000000015</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>33.460939597315431</v>
+        <v>10.105234899328858</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>31.309999999999995</v>
+        <v>8.06</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>31.447741935483869</v>
+        <v>8.2219354838709666</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>33.485714285714288</v>
+        <v>10.231746031746031</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="3"/>
-        <v>34.222222222222221</v>
+        <v>10.888888888888889</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>39.852994652406416</v>
+        <v>16.510748663101605</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="3"/>
-        <v>31.619999999999994</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="4"/>
-        <v>33.673053435114497</v>
+        <v>9.9707633587786262</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="4"/>
-        <v>45.391111111111108</v>
+        <v>22.057777777777776</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="4"/>
+        <v>20.725800240673887</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>23.336842105263159</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="3"/>
+        <v>28.185071315372419</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>21.907692307692308</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>10.050612244897959</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>13.90268221574344</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>12.586153846153845</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>10.884393063583817</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>15.749523809523811</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.0071666666666683</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>10.883758389261743</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8349999999999991</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9961290322580645</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>11.006878306878306</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>17.288823529411765</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="4"/>
+        <v>10.760839694656488</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="4"/>
+        <v>22.835555555555555</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="4"/>
+        <v>21.504380264741275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>24.114736842105263</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="3"/>
+        <v>28.962805071315366</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>22.685664335664335</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>10.826122448979593</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>14.681107871720116</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>13.363076923076923</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>11.66184971098266</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>16.527662337662338</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.7863333333333351</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>11.662281879194632</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.61</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.7703225806451606</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>11.782010582010582</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>12.444444444444445</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>18.066898395721925</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.92</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="4"/>
+        <v>11.550916030534351</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="4"/>
+        <v>23.613333333333333</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="4"/>
+        <v>22.282960288808663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="3"/>
+        <v>24.892631578947366</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="3"/>
+        <v>29.740538827258316</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>23.463636363636361</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>11.601632653061227</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>15.45953352769679</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>14.139999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>12.439306358381502</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>17.305800865800869</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>10.5655</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>12.440805369127517</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>10.385</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>10.544516129032257</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>12.557142857142855</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>13.222222222222223</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>18.844973262032084</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>10.695</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="4"/>
+        <v>12.340992366412213</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="4"/>
+        <v>24.391111111111112</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="4"/>
+        <v>23.061540312876051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="3"/>
+        <v>25.670526315789473</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
+        <v>30.518272583201266</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>24.241608391608391</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>12.377142857142859</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>16.237959183673468</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>14.916923076923077</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>13.216763005780347</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>18.083939393939396</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>11.344666666666669</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>13.219328859060402</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>11.16</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>11.318709677419353</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>13.332275132275131</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
+        <v>19.623048128342244</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="3"/>
+        <v>11.47</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
+        <v>13.131068702290076</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="4"/>
+        <v>25.168888888888887</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="4"/>
+        <v>23.840120336943443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>26.448421052631577</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
+        <v>31.296006339144213</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>25.019580419580418</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.152653061224491</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>17.016384839650144</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>15.693846153846152</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.99421965317919</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>18.862077922077926</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.123833333333335</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>13.997852348993289</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>11.935</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.092903225806451</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>14.107407407407406</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>14.777777777777779</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>20.401122994652404</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="3"/>
+        <v>12.244999999999999</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="4"/>
+        <v>13.921145038167937</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="4"/>
+        <v>25.946666666666665</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="4"/>
+        <v>24.618700361010827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>27.226315789473681</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>32.07374009508716</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>25.797552447552444</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>13.928163265306123</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>17.79481049562682</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>16.470769230769228</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>14.771676300578035</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>19.64021645021645</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>12.903</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>14.776375838926175</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>12.709999999999997</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>12.867096774193548</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>14.882539682539681</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>21.179197860962567</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="3"/>
+        <v>13.02</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="4"/>
+        <v>14.711221374045801</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="4"/>
+        <v>26.724444444444444</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="4"/>
+        <v>25.397280385078219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>8500</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>28.004210526315788</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
+        <v>32.851473851030107</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>26.575524475524475</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>14.703673469387757</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>18.573236151603496</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>17.247692307692308</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>15.549132947976879</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>20.41835497835498</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>13.682166666666665</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>15.55489932885906</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>13.484999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>13.641290322580646</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>15.657671957671957</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="3"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>21.957272727272724</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="3"/>
+        <v>13.795</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="4"/>
+        <v>15.501297709923662</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="4"/>
+        <v>27.502222222222223</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="4"/>
+        <v>26.17586040914561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="3"/>
+        <v>28.782105263157895</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>33.629207606973054</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>27.353496503496501</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>15.47918367346939</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>19.351661807580172</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>18.024615384615384</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>16.326589595375722</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>21.196493506493507</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>14.461333333333334</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>16.333422818791945</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>14.259999999999998</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="3"/>
+        <v>14.415483870967742</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>16.432804232804234</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="3"/>
+        <v>17.111111111111111</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>22.735347593582887</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>14.57</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>16.291374045801525</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="4"/>
+        <v>28.28</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="4"/>
+        <v>26.954440433212998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>9500</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="3"/>
+        <v>29.56</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>34.406941362916001</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>28.131468531468528</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>16.25469387755102</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>20.130087463556851</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>18.80153846153846</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>17.104046242774565</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>21.974632034632037</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>15.240500000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>17.111946308724832</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>15.034999999999998</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="3"/>
+        <v>15.18967741935484</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>17.207936507936509</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="3"/>
+        <v>17.888888888888889</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>23.51342245989305</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>17.081450381679389</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="4"/>
+        <v>29.057777777777776</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="4"/>
+        <v>27.733020457280382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="3"/>
+        <v>30.337894736842106</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
+        <v>35.184675118858948</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>28.909440559440554</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>17.030204081632654</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>20.908513119533527</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>19.578461538461536</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>17.881502890173412</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>22.752770562770564</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>16.019666666666666</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>17.890469798657715</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>15.809999999999997</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
+        <v>15.963870967741935</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="3"/>
+        <v>17.983068783068781</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="3"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>24.291497326203206</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>16.12</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>17.871526717557249</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="4"/>
+        <v>29.835555555555555</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="4"/>
+        <v>28.511600481347774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="3"/>
+        <v>31.115789473684206</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="3"/>
+        <v>35.962408874801895</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>29.687412587412584</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>17.805714285714288</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>21.6869387755102</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>20.355384615384615</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>18.658959537572255</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>23.530909090909095</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>16.798833333333334</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
+        <v>18.668993288590602</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>16.584999999999997</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>16.738064516129032</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
+        <v>18.758201058201056</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="3"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>25.06957219251337</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>16.895</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>18.661603053435115</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="4"/>
+        <v>30.61333333333333</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="4"/>
+        <v>29.290180505415165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="3"/>
+        <v>31.893684210526317</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
+        <v>36.740142630744842</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>30.465384615384615</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>18.581224489795918</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>22.465364431486879</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>21.132307692307691</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>19.436416184971101</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>24.309047619047622</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>17.577999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
+        <v>19.447516778523486</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>17.36</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
+        <v>17.512258064516129</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="3"/>
+        <v>19.533333333333331</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="3"/>
+        <v>20.222222222222221</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="3"/>
+        <v>25.847647058823529</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" ref="B25:Q43" si="5">((($A25/1000)+Q$1)/Q$1)*Q$3</f>
+        <v>17.669999999999998</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>19.451679389312975</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="4"/>
+        <v>31.391111111111108</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="4"/>
+        <v>30.068760529482553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>32.671578947368424</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
+        <v>37.517876386687796</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="5"/>
+        <v>31.243356643356641</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="5"/>
+        <v>19.356734693877552</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
+        <v>23.243790087463552</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="5"/>
+        <v>21.909230769230767</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>20.21387283236994</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>25.087186147186149</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>18.357166666666664</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="5"/>
+        <v>20.226040268456376</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="5"/>
+        <v>18.134999999999998</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="5"/>
+        <v>18.286451612903228</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>20.30846560846561</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="5"/>
+        <v>26.625721925133689</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="5"/>
+        <v>18.445</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" ref="R26:T43" si="6">((($A26/1000)+R$1)/R$1)*R$3</f>
+        <v>20.241755725190838</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="6"/>
+        <v>32.168888888888887</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>30.847340553549937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="5"/>
+        <v>33.449473684210524</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="5"/>
+        <v>38.295610142630743</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>32.021328671328668</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>20.132244897959186</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="5"/>
+        <v>24.022215743440231</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="5"/>
+        <v>22.686153846153843</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="5"/>
+        <v>20.991329479768787</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="5"/>
+        <v>25.865324675324675</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>19.136333333333337</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="5"/>
+        <v>21.004563758389263</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>18.909999999999997</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="5"/>
+        <v>19.060645161290321</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="5"/>
+        <v>21.083597883597886</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="5"/>
+        <v>21.777777777777779</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
+        <v>27.403796791443849</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="5"/>
+        <v>19.22</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="6"/>
+        <v>21.031832061068698</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="6"/>
+        <v>32.946666666666665</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>31.625920577617329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="5"/>
+        <v>34.227368421052631</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="5"/>
+        <v>39.07334389857369</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="5"/>
+        <v>32.799300699300694</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="5"/>
+        <v>20.907755102040817</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="5"/>
+        <v>24.800641399416907</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="5"/>
+        <v>23.463076923076922</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="5"/>
+        <v>21.768786127167633</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="5"/>
+        <v>26.643463203463206</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>19.915500000000002</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="5"/>
+        <v>21.783087248322147</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>19.684999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="5"/>
+        <v>19.83483870967742</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="5"/>
+        <v>21.858730158730161</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="5"/>
+        <v>22.555555555555557</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="5"/>
+        <v>28.181871657754012</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="5"/>
+        <v>19.995000000000001</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="6"/>
+        <v>21.821908396946565</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="6"/>
+        <v>33.724444444444444</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>32.404500601684717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="5"/>
+        <v>35.005263157894731</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="5"/>
+        <v>39.851077654516637</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>33.577272727272728</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="5"/>
+        <v>21.683265306122451</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
+        <v>25.579067055393587</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="5"/>
+        <v>24.240000000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="5"/>
+        <v>22.546242774566473</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="5"/>
+        <v>27.421601731601733</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>20.694666666666667</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="5"/>
+        <v>22.561610738255034</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>20.459999999999994</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="5"/>
+        <v>20.609032258064516</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="5"/>
+        <v>22.633862433862436</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="5"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="5"/>
+        <v>28.959946524064168</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="5"/>
+        <v>20.77</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="6"/>
+        <v>22.611984732824425</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="6"/>
+        <v>34.502222222222223</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>33.183080625752112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="5"/>
+        <v>35.783157894736839</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
+        <v>40.628811410459583</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>34.355244755244755</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>22.458775510204084</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
+        <v>26.357492711370259</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="5"/>
+        <v>25.016923076923078</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="5"/>
+        <v>23.323699421965319</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="5"/>
+        <v>28.199740259740263</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>21.473833333333335</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>23.340134228187917</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="5"/>
+        <v>21.234999999999996</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="5"/>
+        <v>21.383225806451613</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="5"/>
+        <v>23.408994708994712</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="5"/>
+        <v>24.111111111111111</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="5"/>
+        <v>29.738021390374332</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="5"/>
+        <v>21.544999999999998</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="6"/>
+        <v>23.402061068702288</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="6"/>
+        <v>35.28</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>33.961660649819493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="5"/>
+        <v>36.561052631578946</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
+        <v>41.40654516640253</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="5"/>
+        <v>35.133216783216781</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="5"/>
+        <v>23.234285714285715</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="5"/>
+        <v>27.135918367346939</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="5"/>
+        <v>25.793846153846157</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="5"/>
+        <v>24.101156069364162</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="5"/>
+        <v>28.97787878787879</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>22.253</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="5"/>
+        <v>24.118657718120804</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="5"/>
+        <v>22.009999999999994</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="5"/>
+        <v>22.157419354838709</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="5"/>
+        <v>24.184126984126987</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="5"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="5"/>
+        <v>30.516096256684492</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="5"/>
+        <v>22.32</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="6"/>
+        <v>24.192137404580148</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="6"/>
+        <v>36.05777777777778</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>34.740240673886881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>14500</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="5"/>
+        <v>37.338947368421046</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="5"/>
+        <v>42.184278922345477</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="5"/>
+        <v>35.911188811188808</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="5"/>
+        <v>24.009795918367349</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="5"/>
+        <v>27.914344023323611</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="5"/>
+        <v>26.570769230769233</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="5"/>
+        <v>24.878612716763005</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="5"/>
+        <v>29.756017316017317</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="5"/>
+        <v>23.032166666666669</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="5"/>
+        <v>24.897181208053688</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="5"/>
+        <v>22.784999999999997</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="5"/>
+        <v>22.931612903225805</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>24.959259259259262</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="5"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="5"/>
+        <v>31.294171122994651</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="5"/>
+        <v>23.094999999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="6"/>
+        <v>24.982213740458015</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="6"/>
+        <v>36.835555555555551</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>35.518820697954276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:84">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="5"/>
+        <v>38.11684210526316</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="5"/>
+        <v>42.962012678288431</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>36.689160839160834</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="5"/>
+        <v>24.785306122448983</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="5"/>
+        <v>28.692769679300287</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="5"/>
+        <v>27.347692307692309</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="5"/>
+        <v>25.656069364161851</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="5"/>
+        <v>30.534155844155848</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="5"/>
+        <v>23.811333333333334</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="5"/>
+        <v>25.675704697986575</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="5"/>
+        <v>23.559999999999995</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="5"/>
+        <v>23.705806451612904</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="5"/>
+        <v>25.734391534391538</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="5"/>
+        <v>26.444444444444446</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="5"/>
+        <v>32.072245989304811</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="5"/>
+        <v>23.87</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="6"/>
+        <v>25.772290076335871</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="6"/>
+        <v>37.61333333333333</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>36.297400722021656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>15500</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="5"/>
+        <v>38.894736842105267</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="5"/>
+        <v>43.739746434231371</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="5"/>
+        <v>37.467132867132861</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="5"/>
+        <v>25.56081632653061</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="5"/>
+        <v>29.471195335276967</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="5"/>
+        <v>28.124615384615385</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="5"/>
+        <v>26.433526011560694</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="5"/>
+        <v>31.312294372294375</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="5"/>
+        <v>24.590499999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="5"/>
+        <v>26.454228187919458</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="5"/>
+        <v>24.334999999999994</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="5"/>
+        <v>24.48</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="5"/>
+        <v>26.509523809523813</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="5"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="5"/>
+        <v>32.850320855614974</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="5"/>
+        <v>24.645</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="6"/>
+        <v>26.562366412213734</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="6"/>
+        <v>38.391111111111108</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="6"/>
+        <v>37.075980746089051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:84">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="5"/>
+        <v>39.672631578947367</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="5"/>
+        <v>44.517480190174325</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="5"/>
+        <v>38.245104895104895</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="5"/>
+        <v>26.336326530612247</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="5"/>
+        <v>30.249620991253639</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="5"/>
+        <v>28.901538461538465</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="5"/>
+        <v>27.210982658959537</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="5"/>
+        <v>32.090432900432901</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="5"/>
+        <v>25.369666666666671</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="5"/>
+        <v>27.232751677852345</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="5"/>
+        <v>25.109999999999996</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="5"/>
+        <v>25.254193548387093</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="5"/>
+        <v>27.284656084656088</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="5"/>
+        <v>33.628395721925131</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="5"/>
+        <v>25.419999999999995</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="6"/>
+        <v>27.352442748091597</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="6"/>
+        <v>39.168888888888887</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="6"/>
+        <v>37.854560770156439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:84">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>40.450526315789475</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="5"/>
+        <v>45.295213946117272</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="5"/>
+        <v>39.023076923076921</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="5"/>
+        <v>27.111836734693881</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="5"/>
+        <v>31.028046647230319</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="5"/>
+        <v>29.678461538461541</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="5"/>
+        <v>27.98843930635838</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
+        <v>32.868571428571428</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="5"/>
+        <v>26.148833333333336</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="5"/>
+        <v>28.011275167785229</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="5"/>
+        <v>25.884999999999994</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="5"/>
+        <v>26.028387096774189</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="5"/>
+        <v>28.059788359788364</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="5"/>
+        <v>28.777777777777779</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
+        <v>34.406470588235294</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="5"/>
+        <v>26.194999999999997</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="6"/>
+        <v>28.142519083969461</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="6"/>
+        <v>39.946666666666665</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="6"/>
+        <v>38.633140794223827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:84">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>17000</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>41.228421052631575</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="5"/>
+        <v>46.072947702060219</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="5"/>
+        <v>39.801048951048948</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>27.887346938775508</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>31.806472303206991</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>30.455384615384617</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="5"/>
+        <v>28.765895953757227</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="5"/>
+        <v>33.646709956709962</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="5"/>
+        <v>26.928000000000004</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="5"/>
+        <v>28.789798657718116</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="5"/>
+        <v>26.659999999999997</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="5"/>
+        <v>26.802580645161289</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="5"/>
+        <v>28.834920634920639</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="5"/>
+        <v>29.555555555555557</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="5"/>
+        <v>35.184545454545457</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="5"/>
+        <v>26.969999999999995</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="6"/>
+        <v>28.932595419847321</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="6"/>
+        <v>40.724444444444444</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="6"/>
+        <v>39.411720818291215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:84">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>42.006315789473682</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>46.850681458003166</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="5"/>
+        <v>40.579020979020974</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="5"/>
+        <v>28.662857142857145</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="5"/>
+        <v>32.584897959183671</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="5"/>
+        <v>31.232307692307693</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="5"/>
+        <v>29.543352601156069</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="5"/>
+        <v>34.424848484848489</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="5"/>
+        <v>27.707166666666673</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="5"/>
+        <v>29.568322147651003</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="5"/>
+        <v>27.434999999999995</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="5"/>
+        <v>27.576774193548385</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="5"/>
+        <v>29.610052910052914</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="5"/>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="5"/>
+        <v>35.962620320855613</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="5"/>
+        <v>27.744999999999994</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="6"/>
+        <v>29.722671755725184</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="6"/>
+        <v>41.502222222222223</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="6"/>
+        <v>40.190300842358603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:84">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>42.784210526315789</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="5"/>
+        <v>47.628415213946113</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="5"/>
+        <v>41.356993006993001</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="5"/>
+        <v>29.438367346938779</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="5"/>
+        <v>33.363323615160347</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="5"/>
+        <v>32.009230769230768</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>30.320809248554912</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
+        <v>35.202987012987016</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="5"/>
+        <v>28.486333333333334</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="5"/>
+        <v>30.34684563758389</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="5"/>
+        <v>28.209999999999994</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="5"/>
+        <v>28.350967741935481</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="5"/>
+        <v>30.385185185185186</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="5"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
+        <v>36.74069518716577</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="5"/>
+        <v>28.519999999999996</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="6"/>
+        <v>30.512748091603047</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="6"/>
+        <v>42.28</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="6"/>
+        <v>40.968880866425991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:84">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>18500</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>43.562105263157889</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="5"/>
+        <v>48.406148969889067</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="5"/>
+        <v>42.134965034965035</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="5"/>
+        <v>30.213877551020406</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>34.141749271137023</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="5"/>
+        <v>32.786153846153844</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>31.098265895953759</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
+        <v>35.981125541125543</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="5"/>
+        <v>29.265500000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="5"/>
+        <v>31.125369127516773</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="5"/>
+        <v>28.984999999999996</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="5"/>
+        <v>29.125161290322577</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="5"/>
+        <v>31.160317460317462</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="5"/>
+        <v>31.888888888888889</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="5"/>
+        <v>37.518770053475933</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="5"/>
+        <v>29.294999999999995</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="6"/>
+        <v>31.30282442748091</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="6"/>
+        <v>43.05777777777778</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="6"/>
+        <v>41.747460890493386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:84">
+      <c r="A41">
+        <f>A40+500</f>
+        <v>19000</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>44.339999999999996</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="5"/>
+        <v>49.183882725832007</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="5"/>
+        <v>42.912937062937061</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="5"/>
+        <v>30.989387755102044</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>34.920174927113699</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="5"/>
+        <v>33.563076923076927</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="5"/>
+        <v>31.875722543352602</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>36.759264069264077</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="5"/>
+        <v>30.044666666666675</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="5"/>
+        <v>31.90389261744966</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="5"/>
+        <v>29.759999999999994</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="5"/>
+        <v>29.899354838709677</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="5"/>
+        <v>31.935449735449737</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="5"/>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" ref="B41:Q43" si="7">((($A41/1000)+P$1)/P$1)*P$3</f>
+        <v>38.296844919786096</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="7"/>
+        <v>30.069999999999997</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="6"/>
+        <v>32.09290076335877</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="6"/>
+        <v>43.835555555555551</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="6"/>
+        <v>42.526040914560767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:84">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>19500</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="7"/>
+        <v>45.117894736842103</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="7"/>
+        <v>49.961616481774961</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="7"/>
+        <v>43.690909090909088</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="7"/>
+        <v>31.764897959183678</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="7"/>
+        <v>35.698600583090375</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="7"/>
+        <v>34.340000000000003</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="7"/>
+        <v>32.653179190751445</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="7"/>
+        <v>37.537402597402604</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="7"/>
+        <v>30.823833333333337</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="7"/>
+        <v>32.682416107382544</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="7"/>
+        <v>30.534999999999997</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="7"/>
+        <v>30.673548387096773</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="7"/>
+        <v>32.710582010582016</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="7"/>
+        <v>33.444444444444443</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="7"/>
+        <v>39.074919786096252</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="7"/>
+        <v>30.844999999999995</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="6"/>
+        <v>32.882977099236641</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="6"/>
+        <v>44.61333333333333</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="6"/>
+        <v>43.304620938628155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:84">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="7"/>
+        <v>45.895789473684204</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="7"/>
+        <v>50.7393502377179</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="7"/>
+        <v>44.468881118881114</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="7"/>
+        <v>32.540408163265305</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="7"/>
+        <v>36.477026239067051</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="7"/>
+        <v>35.116923076923079</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="7"/>
+        <v>33.430635838150287</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="7"/>
+        <v>38.315541125541131</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="7"/>
+        <v>31.603000000000005</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="7"/>
+        <v>33.460939597315431</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="7"/>
+        <v>31.309999999999995</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="7"/>
+        <v>31.447741935483869</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="7"/>
+        <v>33.485714285714288</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="7"/>
+        <v>34.222222222222221</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="7"/>
+        <v>39.852994652406416</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="7"/>
+        <v>31.619999999999994</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="6"/>
+        <v>33.673053435114497</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="6"/>
+        <v>45.391111111111108</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="6"/>
         <v>44.08320096269555</v>
       </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="2:20">
+    </row>
+    <row r="44" spans="1:84">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3128,7 +5096,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="1:84">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3149,28 +5117,215 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="2:20">
+    <row r="46" spans="1:84">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <f>A46+500</f>
+        <v>500</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" ref="C46:BN46" si="8">B46+500</f>
+        <v>1000</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="8"/>
+        <v>2500</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="8"/>
+        <v>3500</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="8"/>
+        <v>4500</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="8"/>
+        <v>5500</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="8"/>
+        <v>6000</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="8"/>
+        <v>6500</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="8"/>
+        <v>7000</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="8"/>
+        <v>10500</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="8"/>
+        <v>11000</v>
+      </c>
+      <c r="X46" s="1">
+        <f t="shared" si="8"/>
+        <v>11500</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="8"/>
+        <v>12000</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="8"/>
+        <v>12500</v>
+      </c>
+      <c r="AA46" s="1">
+        <f t="shared" si="8"/>
+        <v>13000</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" si="8"/>
+        <v>13500</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" si="8"/>
+        <v>14000</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" si="8"/>
+        <v>14500</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="8"/>
+        <v>15000</v>
+      </c>
+      <c r="AF46" s="1">
+        <f t="shared" si="8"/>
+        <v>15500</v>
+      </c>
+      <c r="AG46" s="1">
+        <f t="shared" si="8"/>
+        <v>16000</v>
+      </c>
+      <c r="AH46" s="1">
+        <f t="shared" si="8"/>
+        <v>16500</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="8"/>
+        <v>17000</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="8"/>
+        <v>17500</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="8"/>
+        <v>18000</v>
+      </c>
+      <c r="AL46" s="1">
+        <f t="shared" si="8"/>
+        <v>18500</v>
+      </c>
+      <c r="AM46" s="1">
+        <f t="shared" si="8"/>
+        <v>19000</v>
+      </c>
+      <c r="AN46" s="1">
+        <f t="shared" si="8"/>
+        <v>19500</v>
+      </c>
+      <c r="AO46" s="1">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+    </row>
+    <row r="47" spans="1:84">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3191,7 +5346,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="1:84">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3535,18 +5690,724 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>9134.9381381078165</v>
+      </c>
+      <c r="C2">
+        <v>4395.650294087297</v>
+      </c>
+      <c r="D2">
+        <v>12977.508351641134</v>
+      </c>
+      <c r="E2">
+        <v>13714.694003880011</v>
+      </c>
+      <c r="F2">
+        <v>3727.2088010656244</v>
+      </c>
+      <c r="G2">
+        <v>5219</v>
+      </c>
+      <c r="H2">
+        <v>4653</v>
+      </c>
+      <c r="I2">
+        <v>3924</v>
+      </c>
+      <c r="J2">
+        <v>27696.124296386915</v>
+      </c>
+      <c r="K2">
+        <v>6380.0288595762549</v>
+      </c>
+      <c r="L2">
+        <v>1102.2534176504637</v>
+      </c>
+      <c r="M2">
+        <v>4107.8472552549483</v>
+      </c>
+      <c r="N2">
+        <v>4384.7465823495359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>87415.45699570424</v>
+      </c>
+      <c r="C3">
+        <v>20542.575366319266</v>
+      </c>
+      <c r="D3">
+        <v>21030.467682096445</v>
+      </c>
+      <c r="E3">
+        <v>29183.702640983713</v>
+      </c>
+      <c r="F3">
+        <v>21983.514045574721</v>
+      </c>
+      <c r="G3">
+        <v>2813</v>
+      </c>
+      <c r="H3">
+        <v>2755</v>
+      </c>
+      <c r="I3">
+        <v>9910.9483263948168</v>
+      </c>
+      <c r="J3">
+        <v>59110.652992178446</v>
+      </c>
+      <c r="K3">
+        <v>26888.073462567489</v>
+      </c>
+      <c r="L3">
+        <v>13959.981602751755</v>
+      </c>
+      <c r="M3">
+        <v>20657.521852584505</v>
+      </c>
+      <c r="N3">
+        <v>410.50816522680168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>396.54519401261803</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>293.05167360518237</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>943.26291608013491</v>
+      </c>
+      <c r="C5">
+        <v>303.08717753585802</v>
+      </c>
+      <c r="D5">
+        <v>755.46881057793337</v>
+      </c>
+      <c r="E5">
+        <v>404.41949559402445</v>
+      </c>
+      <c r="F5">
+        <v>463.4053176591388</v>
+      </c>
+      <c r="G5">
+        <v>449</v>
+      </c>
+      <c r="H5">
+        <v>1421</v>
+      </c>
+      <c r="I5">
+        <v>1024</v>
+      </c>
+      <c r="J5">
+        <v>2938.3780155792097</v>
+      </c>
+      <c r="K5">
+        <v>829.57591187271998</v>
+      </c>
+      <c r="L5">
+        <v>750.24933212462054</v>
+      </c>
+      <c r="M5">
+        <v>64.402355100980856</v>
+      </c>
+      <c r="N5">
+        <v>1042.7506678753793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>14396.47838160412</v>
+      </c>
+      <c r="C6">
+        <v>48930.677402825917</v>
+      </c>
+      <c r="D6">
+        <v>12588.323141066754</v>
+      </c>
+      <c r="E6">
+        <v>6147.4184990870399</v>
+      </c>
+      <c r="F6">
+        <v>4624.9748083933282</v>
+      </c>
+      <c r="G6">
+        <v>14169.186166805528</v>
+      </c>
+      <c r="H6">
+        <v>11766.894607580245</v>
+      </c>
+      <c r="I6">
+        <v>24807.314122024385</v>
+      </c>
+      <c r="J6">
+        <v>31668.320388260829</v>
+      </c>
+      <c r="K6">
+        <v>38945.768900562405</v>
+      </c>
+      <c r="L6">
+        <v>9231.5270927251404</v>
+      </c>
+      <c r="M6">
+        <v>22538.044676312664</v>
+      </c>
+      <c r="N6">
+        <v>21407.820989984812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>3835.5490362265978</v>
+      </c>
+      <c r="C7">
+        <v>184.33372201011247</v>
+      </c>
+      <c r="D7">
+        <v>8333.5848111363994</v>
+      </c>
+      <c r="E7">
+        <v>2194.8695706909166</v>
+      </c>
+      <c r="F7">
+        <v>2635.6803668917714</v>
+      </c>
+      <c r="G7">
+        <v>5161</v>
+      </c>
+      <c r="H7">
+        <v>7915</v>
+      </c>
+      <c r="I7">
+        <v>10672</v>
+      </c>
+      <c r="J7">
+        <v>4497.855892457088</v>
+      </c>
+      <c r="K7">
+        <v>2182.2285786275875</v>
+      </c>
+      <c r="L7">
+        <v>105.89705434030259</v>
+      </c>
+      <c r="M7">
+        <v>305.61965029013447</v>
+      </c>
+      <c r="N7">
+        <v>516.38131732909119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>20269.737797699403</v>
+      </c>
+      <c r="C8">
+        <v>12094.41922032959</v>
+      </c>
+      <c r="D8">
+        <v>9314.1397098692905</v>
+      </c>
+      <c r="E8">
+        <v>15899.015941068797</v>
+      </c>
+      <c r="F8">
+        <v>6069.4435955047393</v>
+      </c>
+      <c r="G8">
+        <v>4638.813833194471</v>
+      </c>
+      <c r="H8">
+        <v>1716.1053924197529</v>
+      </c>
+      <c r="I8">
+        <v>8524.685877975613</v>
+      </c>
+      <c r="J8">
+        <v>27642.646046132122</v>
+      </c>
+      <c r="K8">
+        <v>17453.801152886124</v>
+      </c>
+      <c r="L8">
+        <v>2954.059008027848</v>
+      </c>
+      <c r="M8">
+        <v>6740.5959369844841</v>
+      </c>
+      <c r="N8">
+        <v>19816.787310674586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>26.883892274521283</v>
+      </c>
+      <c r="C9">
+        <v>38.993671963677635</v>
+      </c>
+      <c r="D9">
+        <v>182.04866055980918</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>19.304877612566095</v>
+      </c>
+      <c r="L9">
+        <v>31.392229334577319</v>
+      </c>
+      <c r="M9">
+        <v>386.60749642336714</v>
+      </c>
+      <c r="N9">
+        <v>420.15413333871277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>4.7313328886302318E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.0201338367832196</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.10075082550051669</v>
+      </c>
+      <c r="L10">
+        <v>10.358684411907367</v>
+      </c>
+      <c r="M10">
+        <v>43.98183660562183</v>
+      </c>
+      <c r="N10">
+        <v>197.1063194840693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>2596.1938512046704</v>
+      </c>
+      <c r="C11">
+        <v>9182.123527628728</v>
+      </c>
+      <c r="D11">
+        <v>716.26875996675858</v>
+      </c>
+      <c r="E11">
+        <v>3514.5532875280155</v>
+      </c>
+      <c r="F11">
+        <v>9402.4842428408374</v>
+      </c>
+      <c r="G11">
+        <v>1399</v>
+      </c>
+      <c r="H11">
+        <v>423</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>4216.1912570601935</v>
+      </c>
+      <c r="L11">
+        <v>6833.6969529148828</v>
+      </c>
+      <c r="M11">
+        <v>3497.9995979725982</v>
+      </c>
+      <c r="N11">
+        <v>3765.4885228833145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>146.62890655126506</v>
+      </c>
+      <c r="M13">
+        <v>229.76923672243183</v>
+      </c>
+      <c r="N13">
+        <v>2001.6018567263031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>1877.9061280142159</v>
+      </c>
+      <c r="C16">
+        <v>610.60545415849754</v>
+      </c>
+      <c r="D16">
+        <v>1140.0542662407613</v>
+      </c>
+      <c r="E16">
+        <v>686.06038454657823</v>
+      </c>
+      <c r="F16">
+        <v>2884.7367540003747</v>
+      </c>
+      <c r="G16">
+        <v>4319</v>
+      </c>
+      <c r="H16">
+        <v>1947</v>
+      </c>
+      <c r="I16">
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <v>11941.986542968491</v>
+      </c>
+      <c r="K16">
+        <v>2705.9623520277214</v>
+      </c>
+      <c r="L16">
+        <v>35488.785625935066</v>
+      </c>
+      <c r="M16">
+        <v>4432.0320231572932</v>
+      </c>
+      <c r="N16">
+        <v>10123.870468951001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3568,31 +6429,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3603,7 +6464,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>75.91</v>
@@ -3632,7 +6493,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>39.619999999999997</v>
@@ -3661,7 +6522,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>25.74</v>
@@ -3690,7 +6551,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>25.33</v>
@@ -3719,7 +6580,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>23.01</v>
@@ -3748,7 +6609,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>16.440000000000001</v>
@@ -3777,7 +6638,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>14.05</v>
@@ -3806,7 +6667,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>25.82</v>
@@ -3835,7 +6696,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>70.62</v>
@@ -3864,7 +6725,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>32.729999999999997</v>
@@ -3893,7 +6754,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>28.25</v>
@@ -3922,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>18.13</v>
@@ -3951,7 +6812,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>30.61</v>
@@ -3979,6 +6840,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="F15:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
+++ b/EISPC/Data/Model Parameters/EISPC_PROPERTIES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-75" yWindow="-405" windowWidth="13365" windowHeight="8040" activeTab="2"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -303,8 +303,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +425,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,6 +460,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -642,7 +644,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.42578125" customWidth="1"/>
@@ -651,7 +653,7 @@
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -697,7 +699,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -720,7 +722,7 @@
         <v>19.63</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -743,7 +745,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -766,7 +768,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -789,7 +791,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -812,7 +814,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -836,7 +838,7 @@
         <v>2.3323699421965318</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -859,7 +861,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -883,7 +885,7 @@
         <v>0.43633333333333341</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -906,7 +908,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -929,7 +931,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -952,7 +954,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -976,7 +978,7 @@
         <v>2.4804232804232806</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>3.1111111111111112</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1121,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1129,7 +1131,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -1139,7 +1141,7 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>2.1589999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>11.884</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>3.6539999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1585,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CF63"/>
   <sheetViews>
@@ -1593,7 +1595,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -1608,7 +1610,7 @@
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f t="array" ref="B2:T2">TRANSPOSE(Transmission_Attributes!A2:A20)</f>
         <v>ECAR_MAAC</v>
@@ -1731,7 +1733,7 @@
         <v>RA_CNV</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+500</f>
         <v>500</v>
@@ -1876,9 +1878,9 @@
         <v>13.718580024067387</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A49" si="1">A4+500</f>
+        <f t="shared" ref="A5:A43" si="1">A4+500</f>
         <v>1000</v>
       </c>
       <c r="B5" s="1">
@@ -1958,7 +1960,7 @@
         <v>14.497160048134777</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -2040,7 +2042,7 @@
         <v>15.275740072202165</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2122,7 +2124,7 @@
         <v>16.054320096269553</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -2204,7 +2206,7 @@
         <v>16.832900120336941</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>3000</v>
@@ -2286,7 +2288,7 @@
         <v>17.611480144404332</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>3500</v>
@@ -2368,7 +2370,7 @@
         <v>18.39006016847172</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>4000</v>
@@ -2450,7 +2452,7 @@
         <v>19.168640192539108</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>4500</v>
@@ -2532,7 +2534,7 @@
         <v>19.947220216606496</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -2615,7 +2617,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>5500</v>
@@ -2697,7 +2699,7 @@
         <v>21.504380264741275</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>6000</v>
@@ -2779,7 +2781,7 @@
         <v>22.282960288808663</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>6500</v>
@@ -2861,7 +2863,7 @@
         <v>23.061540312876051</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>7000</v>
@@ -2943,7 +2945,7 @@
         <v>23.840120336943443</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>7500</v>
@@ -3025,7 +3027,7 @@
         <v>24.618700361010827</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>8000</v>
@@ -3107,7 +3109,7 @@
         <v>25.397280385078219</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>8500</v>
@@ -3189,7 +3191,7 @@
         <v>26.17586040914561</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>9000</v>
@@ -3271,7 +3273,7 @@
         <v>26.954440433212998</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>9500</v>
@@ -3353,7 +3355,7 @@
         <v>27.733020457280382</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -3435,7 +3437,7 @@
         <v>28.511600481347774</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>10500</v>
@@ -3517,7 +3519,7 @@
         <v>29.290180505415165</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>11000</v>
@@ -3583,7 +3585,7 @@
         <v>25.847647058823529</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="B25:Q43" si="5">((($A25/1000)+Q$1)/Q$1)*Q$3</f>
+        <f t="shared" ref="B25:Q41" si="5">((($A25/1000)+Q$1)/Q$1)*Q$3</f>
         <v>17.669999999999998</v>
       </c>
       <c r="R25" s="1">
@@ -3599,7 +3601,7 @@
         <v>30.068760529482553</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>11500</v>
@@ -3681,7 +3683,7 @@
         <v>30.847340553549937</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>12000</v>
@@ -3763,7 +3765,7 @@
         <v>31.625920577617329</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>12500</v>
@@ -3845,7 +3847,7 @@
         <v>32.404500601684717</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3927,7 +3929,7 @@
         <v>33.183080625752112</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>13500</v>
@@ -4009,7 +4011,7 @@
         <v>33.961660649819493</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>14000</v>
@@ -4091,7 +4093,7 @@
         <v>34.740240673886881</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>14500</v>
@@ -4173,7 +4175,7 @@
         <v>35.518820697954276</v>
       </c>
     </row>
-    <row r="33" spans="1:84">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>15000</v>
@@ -4255,7 +4257,7 @@
         <v>36.297400722021656</v>
       </c>
     </row>
-    <row r="34" spans="1:84">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>15500</v>
@@ -4337,7 +4339,7 @@
         <v>37.075980746089051</v>
       </c>
     </row>
-    <row r="35" spans="1:84">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>16000</v>
@@ -4419,7 +4421,7 @@
         <v>37.854560770156439</v>
       </c>
     </row>
-    <row r="36" spans="1:84">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>16500</v>
@@ -4501,7 +4503,7 @@
         <v>38.633140794223827</v>
       </c>
     </row>
-    <row r="37" spans="1:84">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>17000</v>
@@ -4583,7 +4585,7 @@
         <v>39.411720818291215</v>
       </c>
     </row>
-    <row r="38" spans="1:84">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>17500</v>
@@ -4665,7 +4667,7 @@
         <v>40.190300842358603</v>
       </c>
     </row>
-    <row r="39" spans="1:84">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>18000</v>
@@ -4747,7 +4749,7 @@
         <v>40.968880866425991</v>
       </c>
     </row>
-    <row r="40" spans="1:84">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>18500</v>
@@ -4829,7 +4831,7 @@
         <v>41.747460890493386</v>
       </c>
     </row>
-    <row r="41" spans="1:84">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40+500</f>
         <v>19000</v>
@@ -4911,7 +4913,7 @@
         <v>42.526040914560767</v>
       </c>
     </row>
-    <row r="42" spans="1:84">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>19500</v>
@@ -4993,7 +4995,7 @@
         <v>43.304620938628155</v>
       </c>
     </row>
-    <row r="43" spans="1:84">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>20000</v>
@@ -5075,7 +5077,7 @@
         <v>44.08320096269555</v>
       </c>
     </row>
-    <row r="44" spans="1:84">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5096,7 +5098,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:84">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5117,7 +5119,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:84">
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>500</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" ref="C46:BN46" si="8">B46+500</f>
+        <f t="shared" ref="C46:AO46" si="8">B46+500</f>
         <v>1000</v>
       </c>
       <c r="D46" s="1">
@@ -5325,7 +5327,7 @@
       <c r="CE46" s="1"/>
       <c r="CF46" s="1"/>
     </row>
-    <row r="47" spans="1:84">
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5346,7 +5348,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:84">
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5367,7 +5369,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5388,7 +5390,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5409,7 +5411,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5430,7 +5432,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5451,7 +5453,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5472,7 +5474,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5493,7 +5495,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5514,7 +5516,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5535,7 +5537,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5556,7 +5558,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5577,7 +5579,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5598,7 +5600,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -5619,7 +5621,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5640,7 +5642,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5661,7 +5663,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5689,7 +5691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -5697,9 +5699,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5784,7 +5786,7 @@
         <v>4384.7465823495359</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>410.50816522680168</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>1042.7506678753793</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>21407.820989984812</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>516.38131732909119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>19816.787310674586</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>420.15413333871277</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>197.1063194840693</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>3765.4885228833145</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>2001.6018567263031</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -6356,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -6406,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -6414,7 +6416,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -6427,7 +6429,7 @@
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>7748</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>7558</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6746,7 +6748,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6839,7 +6841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="F15:T20"/>
   <sheetViews>
@@ -6847,9 +6849,9 @@
       <selection activeCell="F15" sqref="F15:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="15" spans="6:20">
+    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F15">
         <f>F18*1000</f>
         <v>3156000</v>
@@ -6911,7 +6913,7 @@
         <v>4594000</v>
       </c>
     </row>
-    <row r="16" spans="6:20">
+    <row r="16" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" ref="F16:T16" si="1">F19*1000</f>
         <v>3156000</v>
@@ -6973,7 +6975,7 @@
         <v>4594000</v>
       </c>
     </row>
-    <row r="17" spans="6:20">
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" ref="F17:T17" si="2">F20*1000</f>
         <v>3156000</v>
@@ -7035,7 +7037,7 @@
         <v>4594000</v>
       </c>
     </row>
-    <row r="18" spans="6:20">
+    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>3156</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="19" spans="6:20">
+    <row r="19" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>3156</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="20" spans="6:20">
+    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>3156</v>
       </c>
